--- a/raw_data/20200818_saline/20200818_Sensor3_Test_87.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_87.xlsx
@@ -1,3258 +1,3674 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9673BC-3BFC-461E-893B-BAAA270F18F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>77959.748598</v>
+        <v>77959.748598000006</v>
       </c>
       <c r="B2" s="1">
         <v>21.655486</v>
       </c>
       <c r="C2" s="1">
-        <v>1150.100000</v>
+        <v>1150.0999999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-255.118000</v>
+        <v>-255.11799999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>77970.157144</v>
+        <v>77970.157143999997</v>
       </c>
       <c r="G2" s="1">
-        <v>21.658377</v>
+        <v>21.658377000000002</v>
       </c>
       <c r="H2" s="1">
-        <v>1171.090000</v>
+        <v>1171.0899999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-215.148000</v>
+        <v>-215.148</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>77980.639594</v>
+        <v>77980.639593999993</v>
       </c>
       <c r="L2" s="1">
         <v>21.661289</v>
       </c>
       <c r="M2" s="1">
-        <v>1200.240000</v>
+        <v>1200.24</v>
       </c>
       <c r="N2" s="1">
-        <v>-150.826000</v>
+        <v>-150.82599999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>77991.808011</v>
+        <v>77991.808011000001</v>
       </c>
       <c r="Q2" s="1">
-        <v>21.664391</v>
+        <v>21.664390999999998</v>
       </c>
       <c r="R2" s="1">
-        <v>1208.630000</v>
+        <v>1208.6300000000001</v>
       </c>
       <c r="S2" s="1">
-        <v>-129.182000</v>
+        <v>-129.18199999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>78002.388175</v>
       </c>
       <c r="V2" s="1">
-        <v>21.667330</v>
+        <v>21.66733</v>
       </c>
       <c r="W2" s="1">
-        <v>1216.510000</v>
+        <v>1216.51</v>
       </c>
       <c r="X2" s="1">
-        <v>-108.384000</v>
+        <v>-108.384</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>78012.817088</v>
+        <v>78012.817087999996</v>
       </c>
       <c r="AA2" s="1">
-        <v>21.670227</v>
+        <v>21.670227000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1224.450000</v>
+        <v>1224.45</v>
       </c>
       <c r="AC2" s="1">
-        <v>-91.415100</v>
+        <v>-91.415099999999995</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>78023.395266</v>
+        <v>78023.395266000007</v>
       </c>
       <c r="AF2" s="1">
-        <v>21.673165</v>
+        <v>21.673165000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>1229.280000</v>
+        <v>1229.28</v>
       </c>
       <c r="AH2" s="1">
-        <v>-86.963600</v>
+        <v>-86.9636</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>78034.106339</v>
+        <v>78034.106339000005</v>
       </c>
       <c r="AK2" s="1">
-        <v>21.676141</v>
+        <v>21.676141000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>1236.690000</v>
+        <v>1236.69</v>
       </c>
       <c r="AM2" s="1">
-        <v>-90.252200</v>
+        <v>-90.252200000000002</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>78044.647317</v>
+        <v>78044.647316999995</v>
       </c>
       <c r="AP2" s="1">
-        <v>21.679069</v>
+        <v>21.679068999999998</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1244.830000</v>
+        <v>1244.83</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.105000</v>
+        <v>-102.105</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>78055.399591</v>
+        <v>78055.399590999994</v>
       </c>
       <c r="AU2" s="1">
-        <v>21.682055</v>
+        <v>21.682054999999998</v>
       </c>
       <c r="AV2" s="1">
-        <v>1254.970000</v>
+        <v>1254.97</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.382000</v>
+        <v>-121.38200000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>78066.141449</v>
+        <v>78066.141449000002</v>
       </c>
       <c r="AZ2" s="1">
         <v>21.685039</v>
       </c>
       <c r="BA2" s="1">
-        <v>1263.520000</v>
+        <v>1263.52</v>
       </c>
       <c r="BB2" s="1">
-        <v>-138.859000</v>
+        <v>-138.85900000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>78076.391772</v>
+        <v>78076.391772000003</v>
       </c>
       <c r="BE2" s="1">
         <v>21.687887</v>
       </c>
       <c r="BF2" s="1">
-        <v>1304.050000</v>
+        <v>1304.05</v>
       </c>
       <c r="BG2" s="1">
-        <v>-220.681000</v>
+        <v>-220.68100000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>78087.085549</v>
+        <v>78087.085548999996</v>
       </c>
       <c r="BJ2" s="1">
-        <v>21.690857</v>
+        <v>21.690857000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1374.370000</v>
+        <v>1374.37</v>
       </c>
       <c r="BL2" s="1">
-        <v>-356.662000</v>
+        <v>-356.66199999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>78098.187052</v>
+        <v>78098.187051999994</v>
       </c>
       <c r="BO2" s="1">
-        <v>21.693941</v>
+        <v>21.693940999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1489.920000</v>
+        <v>1489.92</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-577.474000</v>
+        <v>-577.47400000000005</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>78110.080047</v>
+        <v>78110.080046999996</v>
       </c>
       <c r="BT2" s="1">
-        <v>21.697244</v>
+        <v>21.697244000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1623.500000</v>
+        <v>1623.5</v>
       </c>
       <c r="BV2" s="1">
-        <v>-826.065000</v>
+        <v>-826.06500000000005</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>78120.942433</v>
+        <v>78120.942433000004</v>
       </c>
       <c r="BY2" s="1">
-        <v>21.700262</v>
+        <v>21.700261999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1776.550000</v>
+        <v>1776.55</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1094.720000</v>
+        <v>-1094.72</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>78132.005735</v>
+        <v>78132.005734999999</v>
       </c>
       <c r="CD2" s="1">
-        <v>21.703335</v>
+        <v>21.703334999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>2193.410000</v>
+        <v>2193.41</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1744.020000</v>
+        <v>-1744.02</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>77960.128038</v>
+        <v>77960.128037999995</v>
       </c>
       <c r="B3" s="1">
-        <v>21.655591</v>
+        <v>21.655591000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>1150.060000</v>
+        <v>1150.06</v>
       </c>
       <c r="D3" s="1">
-        <v>-254.825000</v>
+        <v>-254.82499999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>77970.881802</v>
+        <v>77970.881802000004</v>
       </c>
       <c r="G3" s="1">
-        <v>21.658578</v>
+        <v>21.658577999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>1171.990000</v>
+        <v>1171.99</v>
       </c>
       <c r="I3" s="1">
-        <v>-215.136000</v>
+        <v>-215.136</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>77981.367225</v>
+        <v>77981.367224999995</v>
       </c>
       <c r="L3" s="1">
-        <v>21.661491</v>
+        <v>21.661491000000002</v>
       </c>
       <c r="M3" s="1">
-        <v>1200.300000</v>
+        <v>1200.3</v>
       </c>
       <c r="N3" s="1">
-        <v>-150.934000</v>
+        <v>-150.934</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>77992.192939</v>
       </c>
       <c r="Q3" s="1">
-        <v>21.664498</v>
+        <v>21.664497999999998</v>
       </c>
       <c r="R3" s="1">
-        <v>1208.580000</v>
+        <v>1208.58</v>
       </c>
       <c r="S3" s="1">
-        <v>-129.214000</v>
+        <v>-129.214</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>78002.736365</v>
+        <v>78002.736365000004</v>
       </c>
       <c r="V3" s="1">
         <v>21.667427</v>
       </c>
       <c r="W3" s="1">
-        <v>1216.470000</v>
+        <v>1216.47</v>
       </c>
       <c r="X3" s="1">
-        <v>-108.254000</v>
+        <v>-108.254</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>78013.192064</v>
+        <v>78013.192064000003</v>
       </c>
       <c r="AA3" s="1">
-        <v>21.670331</v>
+        <v>21.670331000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1224.470000</v>
+        <v>1224.47</v>
       </c>
       <c r="AC3" s="1">
-        <v>-91.530000</v>
+        <v>-91.53</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>78024.094630</v>
+        <v>78024.094630000007</v>
       </c>
       <c r="AF3" s="1">
-        <v>21.673360</v>
+        <v>21.673359999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>1229.330000</v>
+        <v>1229.33</v>
       </c>
       <c r="AH3" s="1">
-        <v>-86.992200</v>
+        <v>-86.992199999999997</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>78034.570107</v>
+        <v>78034.570107000007</v>
       </c>
       <c r="AK3" s="1">
-        <v>21.676269</v>
+        <v>21.676269000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>1236.670000</v>
+        <v>1236.67</v>
       </c>
       <c r="AM3" s="1">
-        <v>-90.242300</v>
+        <v>-90.2423</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>78045.077851</v>
+        <v>78045.077850999995</v>
       </c>
       <c r="AP3" s="1">
         <v>21.679188</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1244.810000</v>
+        <v>1244.81</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.114000</v>
+        <v>-102.114</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>78055.768119</v>
       </c>
       <c r="AU3" s="1">
-        <v>21.682158</v>
+        <v>21.682158000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1254.960000</v>
+        <v>1254.96</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.406000</v>
+        <v>-121.40600000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>78066.505515</v>
+        <v>78066.505514999997</v>
       </c>
       <c r="AZ3" s="1">
-        <v>21.685140</v>
+        <v>21.685140000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1263.500000</v>
+        <v>1263.5</v>
       </c>
       <c r="BB3" s="1">
-        <v>-138.865000</v>
+        <v>-138.86500000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>78076.783149</v>
+        <v>78076.783148999995</v>
       </c>
       <c r="BE3" s="1">
-        <v>21.687995</v>
+        <v>21.687995000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1304.080000</v>
+        <v>1304.08</v>
       </c>
       <c r="BG3" s="1">
-        <v>-220.668000</v>
+        <v>-220.66800000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>78087.512077</v>
+        <v>78087.512077000007</v>
       </c>
       <c r="BJ3" s="1">
-        <v>21.690976</v>
+        <v>21.690975999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1374.360000</v>
+        <v>1374.36</v>
       </c>
       <c r="BL3" s="1">
-        <v>-356.693000</v>
+        <v>-356.69299999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>78098.611552</v>
+        <v>78098.611552000002</v>
       </c>
       <c r="BO3" s="1">
-        <v>21.694059</v>
+        <v>21.694058999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1489.950000</v>
+        <v>1489.95</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-577.445000</v>
+        <v>-577.44500000000005</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>78110.222895</v>
+        <v>78110.222894999999</v>
       </c>
       <c r="BT3" s="1">
         <v>21.697284</v>
       </c>
       <c r="BU3" s="1">
-        <v>1623.520000</v>
+        <v>1623.52</v>
       </c>
       <c r="BV3" s="1">
-        <v>-826.105000</v>
+        <v>-826.10500000000002</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>78121.426533</v>
+        <v>78121.426533000005</v>
       </c>
       <c r="BY3" s="1">
-        <v>21.700396</v>
+        <v>21.700396000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1776.590000</v>
+        <v>1776.59</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1094.720000</v>
+        <v>-1094.72</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>78132.601393</v>
+        <v>78132.601393000004</v>
       </c>
       <c r="CD3" s="1">
-        <v>21.703500</v>
+        <v>21.703499999999998</v>
       </c>
       <c r="CE3" s="1">
-        <v>2195.980000</v>
+        <v>2195.98</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1743.210000</v>
+        <v>-1743.21</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>77960.809081</v>
+        <v>77960.809080999999</v>
       </c>
       <c r="B4" s="1">
-        <v>21.655780</v>
+        <v>21.65578</v>
       </c>
       <c r="C4" s="1">
-        <v>1149.760000</v>
+        <v>1149.76</v>
       </c>
       <c r="D4" s="1">
-        <v>-254.751000</v>
+        <v>-254.751</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>77971.226518</v>
+        <v>77971.226517999996</v>
       </c>
       <c r="G4" s="1">
-        <v>21.658674</v>
+        <v>21.658674000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1171.950000</v>
+        <v>1171.95</v>
       </c>
       <c r="I4" s="1">
-        <v>-215.063000</v>
+        <v>-215.06299999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>77981.712441</v>
+        <v>77981.712440999996</v>
       </c>
       <c r="L4" s="1">
-        <v>21.661587</v>
+        <v>21.661587000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>1200.260000</v>
+        <v>1200.26</v>
       </c>
       <c r="N4" s="1">
-        <v>-150.775000</v>
+        <v>-150.77500000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>77992.537130</v>
+        <v>77992.537129999997</v>
       </c>
       <c r="Q4" s="1">
-        <v>21.664594</v>
+        <v>21.664594000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>1208.550000</v>
+        <v>1208.55</v>
       </c>
       <c r="S4" s="1">
-        <v>-129.161000</v>
+        <v>-129.161</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>78003.395548</v>
       </c>
       <c r="V4" s="1">
-        <v>21.667610</v>
+        <v>21.66761</v>
       </c>
       <c r="W4" s="1">
-        <v>1216.370000</v>
+        <v>1216.3699999999999</v>
       </c>
       <c r="X4" s="1">
-        <v>-108.475000</v>
+        <v>-108.47499999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>78013.852702</v>
+        <v>78013.852702000004</v>
       </c>
       <c r="AA4" s="1">
-        <v>21.670515</v>
+        <v>21.670515000000002</v>
       </c>
       <c r="AB4" s="1">
-        <v>1224.370000</v>
+        <v>1224.3699999999999</v>
       </c>
       <c r="AC4" s="1">
-        <v>-91.473100</v>
+        <v>-91.473100000000002</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>78024.467089</v>
+        <v>78024.467088999998</v>
       </c>
       <c r="AF4" s="1">
-        <v>21.673463</v>
+        <v>21.673463000000002</v>
       </c>
       <c r="AG4" s="1">
-        <v>1229.250000</v>
+        <v>1229.25</v>
       </c>
       <c r="AH4" s="1">
-        <v>-87.063800</v>
+        <v>-87.063800000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>78034.844386</v>
+        <v>78034.844385999997</v>
       </c>
       <c r="AK4" s="1">
-        <v>21.676346</v>
+        <v>21.676345999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>1236.680000</v>
+        <v>1236.68</v>
       </c>
       <c r="AM4" s="1">
-        <v>-90.233700</v>
+        <v>-90.233699999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>78045.439924</v>
+        <v>78045.439924000006</v>
       </c>
       <c r="AP4" s="1">
-        <v>21.679289</v>
+        <v>21.679289000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1244.860000</v>
+        <v>1244.8599999999999</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.126000</v>
+        <v>-102.126</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>78056.131190</v>
+        <v>78056.13119</v>
       </c>
       <c r="AU4" s="1">
-        <v>21.682259</v>
+        <v>21.682258999999998</v>
       </c>
       <c r="AV4" s="1">
-        <v>1254.960000</v>
+        <v>1254.96</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.400000</v>
+        <v>-121.4</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>78066.863128</v>
+        <v>78066.863127999997</v>
       </c>
       <c r="AZ4" s="1">
-        <v>21.685240</v>
+        <v>21.68524</v>
       </c>
       <c r="BA4" s="1">
-        <v>1263.530000</v>
+        <v>1263.53</v>
       </c>
       <c r="BB4" s="1">
-        <v>-138.856000</v>
+        <v>-138.85599999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>78077.212154</v>
+        <v>78077.212153999993</v>
       </c>
       <c r="BE4" s="1">
-        <v>21.688114</v>
+        <v>21.688113999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1304.060000</v>
+        <v>1304.06</v>
       </c>
       <c r="BG4" s="1">
-        <v>-220.685000</v>
+        <v>-220.685</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>78087.860301</v>
+        <v>78087.860300999993</v>
       </c>
       <c r="BJ4" s="1">
-        <v>21.691072</v>
+        <v>21.691071999999998</v>
       </c>
       <c r="BK4" s="1">
-        <v>1374.380000</v>
+        <v>1374.38</v>
       </c>
       <c r="BL4" s="1">
-        <v>-356.715000</v>
+        <v>-356.71499999999997</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>78099.030707</v>
+        <v>78099.030706999998</v>
       </c>
       <c r="BO4" s="1">
-        <v>21.694175</v>
+        <v>21.694175000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1489.900000</v>
+        <v>1489.9</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-577.430000</v>
+        <v>-577.42999999999995</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>78110.662846</v>
+        <v>78110.662846000007</v>
       </c>
       <c r="BT4" s="1">
-        <v>21.697406</v>
+        <v>21.697406000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1623.540000</v>
+        <v>1623.54</v>
       </c>
       <c r="BV4" s="1">
-        <v>-826.175000</v>
+        <v>-826.17499999999995</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>78121.875935</v>
+        <v>78121.875935000004</v>
       </c>
       <c r="BY4" s="1">
-        <v>21.700521</v>
+        <v>21.700520999999998</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1776.500000</v>
+        <v>1776.5</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1094.550000</v>
+        <v>-1094.55</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>78133.141042</v>
+        <v>78133.141042000003</v>
       </c>
       <c r="CD4" s="1">
-        <v>21.703650</v>
+        <v>21.70365</v>
       </c>
       <c r="CE4" s="1">
-        <v>2193.820000</v>
+        <v>2193.8200000000002</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1742.410000</v>
+        <v>-1742.41</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>77961.153270</v>
+        <v>77961.153269999995</v>
       </c>
       <c r="B5" s="1">
-        <v>21.655876</v>
+        <v>21.655875999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>1150.030000</v>
+        <v>1150.03</v>
       </c>
       <c r="D5" s="1">
-        <v>-254.893000</v>
+        <v>-254.893</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>77971.570742</v>
+        <v>77971.570741999996</v>
       </c>
       <c r="G5" s="1">
-        <v>21.658770</v>
+        <v>21.658770000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1171.380000</v>
+        <v>1171.3800000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>-215.242000</v>
+        <v>-215.24199999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>77982.060632</v>
+        <v>77982.060631999993</v>
       </c>
       <c r="L5" s="1">
-        <v>21.661684</v>
+        <v>21.661684000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>1200.340000</v>
+        <v>1200.3399999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-150.836000</v>
+        <v>-150.83600000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>77993.196315</v>
+        <v>77993.196314999994</v>
       </c>
       <c r="Q5" s="1">
-        <v>21.664777</v>
+        <v>21.664777000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>1208.650000</v>
+        <v>1208.6500000000001</v>
       </c>
       <c r="S5" s="1">
-        <v>-129.112000</v>
+        <v>-129.11199999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>78003.768044</v>
+        <v>78003.768043999997</v>
       </c>
       <c r="V5" s="1">
-        <v>21.667713</v>
+        <v>21.667712999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>1216.440000</v>
+        <v>1216.44</v>
       </c>
       <c r="X5" s="1">
-        <v>-108.518000</v>
+        <v>-108.518</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>78014.240078</v>
+        <v>78014.240078000003</v>
       </c>
       <c r="AA5" s="1">
-        <v>21.670622</v>
+        <v>21.670622000000002</v>
       </c>
       <c r="AB5" s="1">
-        <v>1224.420000</v>
+        <v>1224.42</v>
       </c>
       <c r="AC5" s="1">
-        <v>-91.493000</v>
+        <v>-91.492999999999995</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>78024.805856</v>
+        <v>78024.805856000006</v>
       </c>
       <c r="AF5" s="1">
-        <v>21.673557</v>
+        <v>21.673556999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>1229.310000</v>
+        <v>1229.31</v>
       </c>
       <c r="AH5" s="1">
-        <v>-86.898100</v>
+        <v>-86.898099999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>78035.194067</v>
+        <v>78035.194067000004</v>
       </c>
       <c r="AK5" s="1">
-        <v>21.676443</v>
+        <v>21.676442999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>1236.720000</v>
+        <v>1236.72</v>
       </c>
       <c r="AM5" s="1">
-        <v>-90.246900</v>
+        <v>-90.246899999999997</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>78045.799524</v>
+        <v>78045.799524000002</v>
       </c>
       <c r="AP5" s="1">
         <v>21.679389</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1244.830000</v>
+        <v>1244.83</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.107000</v>
+        <v>-102.107</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>78056.565199</v>
+        <v>78056.565199000004</v>
       </c>
       <c r="AU5" s="1">
-        <v>21.682379</v>
+        <v>21.682379000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>1254.980000</v>
+        <v>1254.98</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.401000</v>
+        <v>-121.401</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>78067.298615</v>
+        <v>78067.298615000007</v>
       </c>
       <c r="AZ5" s="1">
         <v>21.685361</v>
       </c>
       <c r="BA5" s="1">
-        <v>1263.510000</v>
+        <v>1263.51</v>
       </c>
       <c r="BB5" s="1">
-        <v>-138.853000</v>
+        <v>-138.85300000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>78077.507274</v>
+        <v>78077.507274000003</v>
       </c>
       <c r="BE5" s="1">
-        <v>21.688196</v>
+        <v>21.688196000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1304.080000</v>
+        <v>1304.08</v>
       </c>
       <c r="BG5" s="1">
-        <v>-220.685000</v>
+        <v>-220.685</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>78088.233260</v>
+        <v>78088.233259999994</v>
       </c>
       <c r="BJ5" s="1">
-        <v>21.691176</v>
+        <v>21.691175999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1374.370000</v>
+        <v>1374.37</v>
       </c>
       <c r="BL5" s="1">
-        <v>-356.734000</v>
+        <v>-356.73399999999998</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>78099.426973</v>
+        <v>78099.426972999994</v>
       </c>
       <c r="BO5" s="1">
-        <v>21.694285</v>
+        <v>21.694285000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1489.930000</v>
+        <v>1489.93</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-577.449000</v>
+        <v>-577.44899999999996</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>78111.086927</v>
+        <v>78111.086926999997</v>
       </c>
       <c r="BT5" s="1">
-        <v>21.697524</v>
+        <v>21.697524000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1623.400000</v>
+        <v>1623.4</v>
       </c>
       <c r="BV5" s="1">
-        <v>-826.250000</v>
+        <v>-826.25</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>78122.331763</v>
+        <v>78122.331762999995</v>
       </c>
       <c r="BY5" s="1">
-        <v>21.700648</v>
+        <v>21.700648000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1776.590000</v>
+        <v>1776.59</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1094.630000</v>
+        <v>-1094.6300000000001</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>78133.679200</v>
+        <v>78133.679199999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>21.703800</v>
+        <v>21.703800000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>2195.220000</v>
+        <v>2195.2199999999998</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1744.880000</v>
+        <v>-1744.88</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>77961.491081</v>
       </c>
       <c r="B6" s="1">
-        <v>21.655970</v>
+        <v>21.65597</v>
       </c>
       <c r="C6" s="1">
-        <v>1149.970000</v>
+        <v>1149.97</v>
       </c>
       <c r="D6" s="1">
-        <v>-254.806000</v>
+        <v>-254.80600000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>77972.241831</v>
+        <v>77972.241831000007</v>
       </c>
       <c r="G6" s="1">
         <v>21.658956</v>
       </c>
       <c r="H6" s="1">
-        <v>1171.340000</v>
+        <v>1171.3399999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-215.277000</v>
+        <v>-215.27699999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>77982.740647</v>
+        <v>77982.740646999999</v>
       </c>
       <c r="L6" s="1">
-        <v>21.661872</v>
+        <v>21.661871999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1200.400000</v>
+        <v>1200.4000000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-150.845000</v>
+        <v>-150.845</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>77993.586665</v>
+        <v>77993.586664999995</v>
       </c>
       <c r="Q6" s="1">
-        <v>21.664885</v>
+        <v>21.664885000000002</v>
       </c>
       <c r="R6" s="1">
-        <v>1208.650000</v>
+        <v>1208.6500000000001</v>
       </c>
       <c r="S6" s="1">
-        <v>-129.152000</v>
+        <v>-129.15199999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>78004.115740</v>
+        <v>78004.115739999994</v>
       </c>
       <c r="V6" s="1">
-        <v>21.667810</v>
+        <v>21.667809999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>1216.480000</v>
+        <v>1216.48</v>
       </c>
       <c r="X6" s="1">
-        <v>-108.317000</v>
+        <v>-108.31699999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>78014.585789</v>
+        <v>78014.585789000004</v>
       </c>
       <c r="AA6" s="1">
-        <v>21.670718</v>
+        <v>21.670718000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1224.440000</v>
+        <v>1224.44</v>
       </c>
       <c r="AC6" s="1">
-        <v>-91.650000</v>
+        <v>-91.65</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>78025.152063</v>
+        <v>78025.152063000001</v>
       </c>
       <c r="AF6" s="1">
-        <v>21.673653</v>
+        <v>21.673653000000002</v>
       </c>
       <c r="AG6" s="1">
-        <v>1229.360000</v>
+        <v>1229.3599999999999</v>
       </c>
       <c r="AH6" s="1">
-        <v>-87.058400</v>
+        <v>-87.058400000000006</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>78035.624097</v>
+        <v>78035.624097000007</v>
       </c>
       <c r="AK6" s="1">
-        <v>21.676562</v>
+        <v>21.676562000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>1236.710000</v>
+        <v>1236.71</v>
       </c>
       <c r="AM6" s="1">
-        <v>-90.256700</v>
+        <v>-90.256699999999995</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>78046.233028</v>
+        <v>78046.233028000002</v>
       </c>
       <c r="AP6" s="1">
-        <v>21.679509</v>
+        <v>21.679508999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1244.830000</v>
+        <v>1244.83</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.137000</v>
+        <v>-102.137</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>78056.862293</v>
+        <v>78056.862292999998</v>
       </c>
       <c r="AU6" s="1">
-        <v>21.682462</v>
+        <v>21.682462000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1254.950000</v>
+        <v>1254.95</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.399000</v>
+        <v>-121.399</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>78067.580361</v>
       </c>
       <c r="AZ6" s="1">
-        <v>21.685439</v>
+        <v>21.685438999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1263.510000</v>
+        <v>1263.51</v>
       </c>
       <c r="BB6" s="1">
-        <v>-138.884000</v>
+        <v>-138.88399999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>78077.868361</v>
+        <v>78077.868361000001</v>
       </c>
       <c r="BE6" s="1">
-        <v>21.688297</v>
+        <v>21.688296999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1304.060000</v>
+        <v>1304.06</v>
       </c>
       <c r="BG6" s="1">
-        <v>-220.678000</v>
+        <v>-220.678</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>78088.609228</v>
+        <v>78088.609228000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>21.691280</v>
+        <v>21.691279999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1374.350000</v>
+        <v>1374.35</v>
       </c>
       <c r="BL6" s="1">
-        <v>-356.670000</v>
+        <v>-356.67</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>78099.850557</v>
+        <v>78099.850556999998</v>
       </c>
       <c r="BO6" s="1">
-        <v>21.694403</v>
+        <v>21.694403000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1489.910000</v>
+        <v>1489.91</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-577.480000</v>
+        <v>-577.48</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>78111.928668</v>
+        <v>78111.928667999993</v>
       </c>
       <c r="BT6" s="1">
         <v>21.697758</v>
       </c>
       <c r="BU6" s="1">
-        <v>1623.410000</v>
+        <v>1623.41</v>
       </c>
       <c r="BV6" s="1">
-        <v>-826.256000</v>
+        <v>-826.25599999999997</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>78122.779119</v>
+        <v>78122.779118999999</v>
       </c>
       <c r="BY6" s="1">
-        <v>21.700772</v>
+        <v>21.700772000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1776.550000</v>
+        <v>1776.55</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1094.480000</v>
+        <v>-1094.48</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>78134.220335</v>
+        <v>78134.220335000005</v>
       </c>
       <c r="CD6" s="1">
-        <v>21.703950</v>
+        <v>21.703949999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>2194.740000</v>
+        <v>2194.7399999999998</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1741.920000</v>
+        <v>-1741.92</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>77962.159650</v>
+        <v>77962.159650000001</v>
       </c>
       <c r="B7" s="1">
-        <v>21.656155</v>
+        <v>21.656154999999998</v>
       </c>
       <c r="C7" s="1">
-        <v>1149.880000</v>
+        <v>1149.8800000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>-254.644000</v>
+        <v>-254.64400000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>77972.605399</v>
+        <v>77972.605398999993</v>
       </c>
       <c r="G7" s="1">
-        <v>21.659057</v>
+        <v>21.659057000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1172.100000</v>
+        <v>1172.0999999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-214.858000</v>
+        <v>-214.858</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>77983.098761</v>
+        <v>77983.098761000001</v>
       </c>
       <c r="L7" s="1">
-        <v>21.661972</v>
+        <v>21.661971999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>1200.270000</v>
+        <v>1200.27</v>
       </c>
       <c r="N7" s="1">
-        <v>-150.878000</v>
+        <v>-150.87799999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>77993.937369</v>
+        <v>77993.937369000007</v>
       </c>
       <c r="Q7" s="1">
-        <v>21.664983</v>
+        <v>21.664982999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1208.650000</v>
+        <v>1208.6500000000001</v>
       </c>
       <c r="S7" s="1">
-        <v>-129.212000</v>
+        <v>-129.21199999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>78004.460955</v>
+        <v>78004.460955000002</v>
       </c>
       <c r="V7" s="1">
-        <v>21.667906</v>
+        <v>21.667905999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>1216.390000</v>
+        <v>1216.3900000000001</v>
       </c>
       <c r="X7" s="1">
-        <v>-108.547000</v>
+        <v>-108.547</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>78014.933517</v>
+        <v>78014.933516999998</v>
       </c>
       <c r="AA7" s="1">
-        <v>21.670815</v>
+        <v>21.670815000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1224.430000</v>
+        <v>1224.43</v>
       </c>
       <c r="AC7" s="1">
-        <v>-91.448400</v>
+        <v>-91.448400000000007</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>78025.567742</v>
+        <v>78025.567741999999</v>
       </c>
       <c r="AF7" s="1">
         <v>21.673769</v>
       </c>
       <c r="AG7" s="1">
-        <v>1229.430000</v>
+        <v>1229.43</v>
       </c>
       <c r="AH7" s="1">
-        <v>-87.047600</v>
+        <v>-87.047600000000003</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>78035.890449</v>
+        <v>78035.890448999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>21.676636</v>
+        <v>21.676635999999998</v>
       </c>
       <c r="AL7" s="1">
-        <v>1236.700000</v>
+        <v>1236.7</v>
       </c>
       <c r="AM7" s="1">
-        <v>-90.267600</v>
+        <v>-90.267600000000002</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>78046.517236</v>
       </c>
       <c r="AP7" s="1">
-        <v>21.679588</v>
+        <v>21.679587999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1244.820000</v>
+        <v>1244.82</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.113000</v>
+        <v>-102.113</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>78057.226854</v>
+        <v>78057.226853999993</v>
       </c>
       <c r="AU7" s="1">
-        <v>21.682563</v>
+        <v>21.682562999999998</v>
       </c>
       <c r="AV7" s="1">
-        <v>1254.970000</v>
+        <v>1254.97</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.373000</v>
+        <v>-121.373</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>78067.940935</v>
+        <v>78067.940935000006</v>
       </c>
       <c r="AZ7" s="1">
-        <v>21.685539</v>
+        <v>21.685538999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1263.520000</v>
+        <v>1263.52</v>
       </c>
       <c r="BB7" s="1">
-        <v>-138.855000</v>
+        <v>-138.85499999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>78078.224986</v>
+        <v>78078.224986000001</v>
       </c>
       <c r="BE7" s="1">
-        <v>21.688396</v>
+        <v>21.688396000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1304.030000</v>
+        <v>1304.03</v>
       </c>
       <c r="BG7" s="1">
-        <v>-220.669000</v>
+        <v>-220.66900000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>78089.382987</v>
+        <v>78089.382987000005</v>
       </c>
       <c r="BJ7" s="1">
         <v>21.691495</v>
       </c>
       <c r="BK7" s="1">
-        <v>1374.380000</v>
+        <v>1374.38</v>
       </c>
       <c r="BL7" s="1">
-        <v>-356.715000</v>
+        <v>-356.71499999999997</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>78100.663499</v>
+        <v>78100.663499000002</v>
       </c>
       <c r="BO7" s="1">
-        <v>21.694629</v>
+        <v>21.694628999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1489.890000</v>
+        <v>1489.89</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-577.543000</v>
+        <v>-577.54300000000001</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>78112.362636</v>
+        <v>78112.362636000005</v>
       </c>
       <c r="BT7" s="1">
         <v>21.697879</v>
       </c>
       <c r="BU7" s="1">
-        <v>1623.350000</v>
+        <v>1623.35</v>
       </c>
       <c r="BV7" s="1">
-        <v>-826.273000</v>
+        <v>-826.27300000000002</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>78123.236926</v>
+        <v>78123.236925999998</v>
       </c>
       <c r="BY7" s="1">
         <v>21.700899</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1776.530000</v>
+        <v>1776.53</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1094.620000</v>
+        <v>-1094.6199999999999</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>78134.757503</v>
+        <v>78134.757503000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>21.704099</v>
+        <v>21.704098999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>2193.880000</v>
+        <v>2193.88</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1743.920000</v>
+        <v>-1743.92</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>77962.506850</v>
+        <v>77962.506850000005</v>
       </c>
       <c r="B8" s="1">
-        <v>21.656252</v>
+        <v>21.656251999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>1150.160000</v>
+        <v>1150.1600000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-254.921000</v>
+        <v>-254.92099999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>77972.950116</v>
+        <v>77972.950116000007</v>
       </c>
       <c r="G8" s="1">
         <v>21.659153</v>
       </c>
       <c r="H8" s="1">
-        <v>1172.650000</v>
+        <v>1172.6500000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-214.656000</v>
+        <v>-214.65600000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>77983.444472</v>
+        <v>77983.444472000003</v>
       </c>
       <c r="L8" s="1">
-        <v>21.662068</v>
+        <v>21.662068000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>1200.440000</v>
+        <v>1200.44</v>
       </c>
       <c r="N8" s="1">
-        <v>-150.971000</v>
+        <v>-150.971</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>77994.285528</v>
+        <v>77994.285527999993</v>
       </c>
       <c r="Q8" s="1">
-        <v>21.665079</v>
+        <v>21.665078999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>1208.600000</v>
+        <v>1208.5999999999999</v>
       </c>
       <c r="S8" s="1">
-        <v>-129.181000</v>
+        <v>-129.18100000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>78004.888506</v>
+        <v>78004.888506000003</v>
       </c>
       <c r="V8" s="1">
         <v>21.668025</v>
       </c>
       <c r="W8" s="1">
-        <v>1216.410000</v>
+        <v>1216.4100000000001</v>
       </c>
       <c r="X8" s="1">
-        <v>-108.423000</v>
+        <v>-108.423</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>78015.357069</v>
+        <v>78015.357069000005</v>
       </c>
       <c r="AA8" s="1">
-        <v>21.670933</v>
+        <v>21.670933000000002</v>
       </c>
       <c r="AB8" s="1">
-        <v>1224.400000</v>
+        <v>1224.4000000000001</v>
       </c>
       <c r="AC8" s="1">
-        <v>-91.566100</v>
+        <v>-91.566100000000006</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>78025.867790</v>
+        <v>78025.867790000004</v>
       </c>
       <c r="AF8" s="1">
         <v>21.673852</v>
       </c>
       <c r="AG8" s="1">
-        <v>1229.330000</v>
+        <v>1229.33</v>
       </c>
       <c r="AH8" s="1">
-        <v>-86.963500</v>
+        <v>-86.963499999999996</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>78036.239665</v>
+        <v>78036.239665000001</v>
       </c>
       <c r="AK8" s="1">
-        <v>21.676733</v>
+        <v>21.676732999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1236.700000</v>
+        <v>1236.7</v>
       </c>
       <c r="AM8" s="1">
-        <v>-90.267600</v>
+        <v>-90.267600000000002</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>78046.878819</v>
+        <v>78046.878819000005</v>
       </c>
       <c r="AP8" s="1">
         <v>21.679689</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1244.820000</v>
+        <v>1244.82</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.142000</v>
+        <v>-102.142</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>78057.592431</v>
+        <v>78057.592430999997</v>
       </c>
       <c r="AU8" s="1">
         <v>21.682665</v>
       </c>
       <c r="AV8" s="1">
-        <v>1254.980000</v>
+        <v>1254.98</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.396000</v>
+        <v>-121.396</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>78068.526711</v>
+        <v>78068.526710999999</v>
       </c>
       <c r="AZ8" s="1">
-        <v>21.685702</v>
+        <v>21.685701999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1263.520000</v>
+        <v>1263.52</v>
       </c>
       <c r="BB8" s="1">
-        <v>-138.851000</v>
+        <v>-138.851</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>78078.951624</v>
+        <v>78078.951623999994</v>
       </c>
       <c r="BE8" s="1">
-        <v>21.688598</v>
+        <v>21.688597999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1304.080000</v>
+        <v>1304.08</v>
       </c>
       <c r="BG8" s="1">
-        <v>-220.684000</v>
+        <v>-220.684</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>78089.757497</v>
+        <v>78089.757496999999</v>
       </c>
       <c r="BJ8" s="1">
         <v>21.691599</v>
       </c>
       <c r="BK8" s="1">
-        <v>1374.380000</v>
+        <v>1374.38</v>
       </c>
       <c r="BL8" s="1">
-        <v>-356.679000</v>
+        <v>-356.67899999999997</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>78101.086091</v>
+        <v>78101.086091000005</v>
       </c>
       <c r="BO8" s="1">
-        <v>21.694746</v>
+        <v>21.694745999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1489.950000</v>
+        <v>1489.95</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-577.479000</v>
+        <v>-577.47900000000004</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>78112.789197</v>
+        <v>78112.789197000006</v>
       </c>
       <c r="BT8" s="1">
-        <v>21.697997</v>
+        <v>21.697997000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1623.310000</v>
+        <v>1623.31</v>
       </c>
       <c r="BV8" s="1">
-        <v>-826.198000</v>
+        <v>-826.19799999999998</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>78123.990846</v>
+        <v>78123.990846000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>21.701109</v>
+        <v>21.701108999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1776.470000</v>
+        <v>1776.47</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1094.680000</v>
+        <v>-1094.68</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>78135.633596</v>
       </c>
       <c r="CD8" s="1">
-        <v>21.704343</v>
+        <v>21.704343000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>2194.410000</v>
+        <v>2194.41</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1742.180000</v>
+        <v>-1742.18</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>77962.861526</v>
+        <v>77962.861525999993</v>
       </c>
       <c r="B9" s="1">
-        <v>21.656350</v>
+        <v>21.65635</v>
       </c>
       <c r="C9" s="1">
-        <v>1150.040000</v>
+        <v>1150.04</v>
       </c>
       <c r="D9" s="1">
-        <v>-255.029000</v>
+        <v>-255.029</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>77973.296821</v>
+        <v>77973.296820999996</v>
       </c>
       <c r="G9" s="1">
-        <v>21.659249</v>
+        <v>21.659248999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>1171.860000</v>
+        <v>1171.8599999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-214.956000</v>
+        <v>-214.95599999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>77983.845258</v>
+        <v>77983.845258000001</v>
       </c>
       <c r="L9" s="1">
-        <v>21.662179</v>
+        <v>21.662178999999998</v>
       </c>
       <c r="M9" s="1">
-        <v>1200.380000</v>
+        <v>1200.3800000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-150.968000</v>
+        <v>-150.96799999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>77994.715101</v>
+        <v>77994.715100999994</v>
       </c>
       <c r="Q9" s="1">
-        <v>21.665199</v>
+        <v>21.665199000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>1208.570000</v>
+        <v>1208.57</v>
       </c>
       <c r="S9" s="1">
-        <v>-129.174000</v>
+        <v>-129.17400000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>78005.159322</v>
+        <v>78005.159322000007</v>
       </c>
       <c r="V9" s="1">
-        <v>21.668100</v>
+        <v>21.668099999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>1216.340000</v>
+        <v>1216.3399999999999</v>
       </c>
       <c r="X9" s="1">
-        <v>-108.390000</v>
+        <v>-108.39</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>78015.633341</v>
+        <v>78015.633340999993</v>
       </c>
       <c r="AA9" s="1">
-        <v>21.671009</v>
+        <v>21.671009000000002</v>
       </c>
       <c r="AB9" s="1">
-        <v>1224.340000</v>
+        <v>1224.3399999999999</v>
       </c>
       <c r="AC9" s="1">
-        <v>-91.385500</v>
+        <v>-91.385499999999993</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>78026.209534</v>
+        <v>78026.209533999994</v>
       </c>
       <c r="AF9" s="1">
-        <v>21.673947</v>
+        <v>21.673946999999998</v>
       </c>
       <c r="AG9" s="1">
-        <v>1229.290000</v>
+        <v>1229.29</v>
       </c>
       <c r="AH9" s="1">
-        <v>-87.016600</v>
+        <v>-87.016599999999997</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>78036.587361</v>
+        <v>78036.587360999998</v>
       </c>
       <c r="AK9" s="1">
-        <v>21.676830</v>
+        <v>21.676829999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>1236.690000</v>
+        <v>1236.69</v>
       </c>
       <c r="AM9" s="1">
-        <v>-90.221600</v>
+        <v>-90.221599999999995</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>78047.237923</v>
+        <v>78047.237922999993</v>
       </c>
       <c r="AP9" s="1">
-        <v>21.679788</v>
+        <v>21.679787999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1244.840000</v>
+        <v>1244.8399999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.104000</v>
+        <v>-102.104</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>78058.317557</v>
+        <v>78058.317557000002</v>
       </c>
       <c r="AU9" s="1">
-        <v>21.682866</v>
+        <v>21.682866000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1254.970000</v>
+        <v>1254.97</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.391000</v>
+        <v>-121.39100000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>78068.656270</v>
+        <v>78068.656270000007</v>
       </c>
       <c r="AZ9" s="1">
-        <v>21.685738</v>
+        <v>21.685738000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1263.510000</v>
+        <v>1263.51</v>
       </c>
       <c r="BB9" s="1">
-        <v>-138.853000</v>
+        <v>-138.85300000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>78079.335528</v>
+        <v>78079.335527999996</v>
       </c>
       <c r="BE9" s="1">
-        <v>21.688704</v>
+        <v>21.688704000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1304.050000</v>
+        <v>1304.05</v>
       </c>
       <c r="BG9" s="1">
-        <v>-220.706000</v>
+        <v>-220.70599999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>78090.137897</v>
+        <v>78090.137896999993</v>
       </c>
       <c r="BJ9" s="1">
-        <v>21.691705</v>
+        <v>21.691704999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1374.370000</v>
+        <v>1374.37</v>
       </c>
       <c r="BL9" s="1">
-        <v>-356.687000</v>
+        <v>-356.68700000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>78101.483882</v>
       </c>
       <c r="BO9" s="1">
-        <v>21.694857</v>
+        <v>21.694856999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1489.950000</v>
+        <v>1489.95</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-577.485000</v>
+        <v>-577.48500000000001</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>78113.515338</v>
+        <v>78113.515337999997</v>
       </c>
       <c r="BT9" s="1">
-        <v>21.698199</v>
+        <v>21.698198999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1623.290000</v>
+        <v>1623.29</v>
       </c>
       <c r="BV9" s="1">
-        <v>-826.173000</v>
+        <v>-826.173</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>78124.131709</v>
+        <v>78124.131708999994</v>
       </c>
       <c r="BY9" s="1">
         <v>21.701148</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1776.340000</v>
+        <v>1776.34</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1094.570000</v>
+        <v>-1094.57</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>78135.840269</v>
+        <v>78135.840268999993</v>
       </c>
       <c r="CD9" s="1">
-        <v>21.704400</v>
+        <v>21.7044</v>
       </c>
       <c r="CE9" s="1">
-        <v>2194.430000</v>
+        <v>2194.4299999999998</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1741.900000</v>
+        <v>-1741.9</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>77963.205714</v>
+        <v>77963.205713999996</v>
       </c>
       <c r="B10" s="1">
-        <v>21.656446</v>
+        <v>21.656445999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>1150.020000</v>
+        <v>1150.02</v>
       </c>
       <c r="D10" s="1">
-        <v>-255.092000</v>
+        <v>-255.09200000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>77973.720901</v>
+        <v>77973.720900999993</v>
       </c>
       <c r="G10" s="1">
         <v>21.659367</v>
       </c>
       <c r="H10" s="1">
-        <v>1172.220000</v>
+        <v>1172.22</v>
       </c>
       <c r="I10" s="1">
-        <v>-214.619000</v>
+        <v>-214.619</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>77984.498966</v>
+        <v>77984.498965999999</v>
       </c>
       <c r="L10" s="1">
-        <v>21.662361</v>
+        <v>21.662361000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>1200.430000</v>
+        <v>1200.43</v>
       </c>
       <c r="N10" s="1">
-        <v>-150.815000</v>
+        <v>-150.815</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>77994.989388</v>
+        <v>77994.989388000002</v>
       </c>
       <c r="Q10" s="1">
-        <v>21.665275</v>
+        <v>21.665275000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1208.570000</v>
+        <v>1208.57</v>
       </c>
       <c r="S10" s="1">
-        <v>-129.157000</v>
+        <v>-129.15700000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>78005.502095</v>
+        <v>78005.502095000003</v>
       </c>
       <c r="V10" s="1">
-        <v>21.668195</v>
+        <v>21.668195000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>1216.380000</v>
+        <v>1216.3800000000001</v>
       </c>
       <c r="X10" s="1">
-        <v>-108.335000</v>
+        <v>-108.33499999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>78015.983515</v>
       </c>
       <c r="AA10" s="1">
-        <v>21.671107</v>
+        <v>21.671106999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>1224.500000</v>
+        <v>1224.5</v>
       </c>
       <c r="AC10" s="1">
-        <v>-91.506200</v>
+        <v>-91.506200000000007</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>78026.553776</v>
+        <v>78026.553776000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>21.674043</v>
+        <v>21.674043000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>1229.270000</v>
+        <v>1229.27</v>
       </c>
       <c r="AH10" s="1">
-        <v>-86.970400</v>
+        <v>-86.970399999999998</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>78037.286191</v>
+        <v>78037.286191000007</v>
       </c>
       <c r="AK10" s="1">
-        <v>21.677024</v>
+        <v>21.677023999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>1236.670000</v>
+        <v>1236.67</v>
       </c>
       <c r="AM10" s="1">
-        <v>-90.227300</v>
+        <v>-90.2273</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>78047.960098</v>
+        <v>78047.960097999996</v>
       </c>
       <c r="AP10" s="1">
-        <v>21.679989</v>
+        <v>21.679988999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1244.820000</v>
+        <v>1244.82</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.133000</v>
+        <v>-102.133</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>78058.683603</v>
+        <v>78058.683602999998</v>
       </c>
       <c r="AU10" s="1">
-        <v>21.682968</v>
+        <v>21.682967999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>1254.940000</v>
+        <v>1254.94</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.384000</v>
+        <v>-121.384</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>78069.014775</v>
+        <v>78069.014775000003</v>
       </c>
       <c r="AZ10" s="1">
-        <v>21.685837</v>
+        <v>21.685836999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1263.530000</v>
+        <v>1263.53</v>
       </c>
       <c r="BB10" s="1">
-        <v>-138.882000</v>
+        <v>-138.88200000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>78079.715463</v>
       </c>
       <c r="BE10" s="1">
-        <v>21.688810</v>
+        <v>21.68881</v>
       </c>
       <c r="BF10" s="1">
-        <v>1304.050000</v>
+        <v>1304.05</v>
       </c>
       <c r="BG10" s="1">
-        <v>-220.673000</v>
+        <v>-220.673</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>78090.845224</v>
+        <v>78090.845224000004</v>
       </c>
       <c r="BJ10" s="1">
-        <v>21.691901</v>
+        <v>21.691901000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1374.380000</v>
+        <v>1374.38</v>
       </c>
       <c r="BL10" s="1">
-        <v>-356.691000</v>
+        <v>-356.69099999999997</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>78102.232841</v>
+        <v>78102.232841000005</v>
       </c>
       <c r="BO10" s="1">
         <v>21.695065</v>
       </c>
       <c r="BP10" s="1">
-        <v>1489.950000</v>
+        <v>1489.95</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-577.499000</v>
+        <v>-577.49900000000002</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>78113.633386</v>
+        <v>78113.633386000001</v>
       </c>
       <c r="BT10" s="1">
         <v>21.698231</v>
       </c>
       <c r="BU10" s="1">
-        <v>1623.290000</v>
+        <v>1623.29</v>
       </c>
       <c r="BV10" s="1">
-        <v>-826.352000</v>
+        <v>-826.35199999999998</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>78124.555325</v>
+        <v>78124.555324999994</v>
       </c>
       <c r="BY10" s="1">
-        <v>21.701265</v>
+        <v>21.701264999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1776.470000</v>
+        <v>1776.47</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1094.750000</v>
+        <v>-1094.75</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>78136.361564</v>
+        <v>78136.361564000006</v>
       </c>
       <c r="CD10" s="1">
         <v>21.704545</v>
       </c>
       <c r="CE10" s="1">
-        <v>2193.100000</v>
+        <v>2193.1</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1743.580000</v>
+        <v>-1743.58</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>77963.648641</v>
+        <v>77963.648641000007</v>
       </c>
       <c r="B11" s="1">
-        <v>21.656569</v>
+        <v>21.656569000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>1150.140000</v>
+        <v>1150.1400000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-254.667000</v>
+        <v>-254.667</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>77974.000148</v>
+        <v>77974.000148000006</v>
       </c>
       <c r="G11" s="1">
-        <v>21.659444</v>
+        <v>21.659444000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>1171.930000</v>
+        <v>1171.93</v>
       </c>
       <c r="I11" s="1">
-        <v>-214.350000</v>
+        <v>-214.35</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>77984.842692</v>
+        <v>77984.842692000006</v>
       </c>
       <c r="L11" s="1">
-        <v>21.662456</v>
+        <v>21.662455999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>1200.180000</v>
+        <v>1200.18</v>
       </c>
       <c r="N11" s="1">
-        <v>-150.954000</v>
+        <v>-150.95400000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>77995.335596</v>
+        <v>77995.335596000004</v>
       </c>
       <c r="Q11" s="1">
         <v>21.665371</v>
       </c>
       <c r="R11" s="1">
-        <v>1208.640000</v>
+        <v>1208.6400000000001</v>
       </c>
       <c r="S11" s="1">
-        <v>-129.124000</v>
+        <v>-129.124</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>78005.846281</v>
+        <v>78005.846281000006</v>
       </c>
       <c r="V11" s="1">
         <v>21.668291</v>
       </c>
       <c r="W11" s="1">
-        <v>1216.340000</v>
+        <v>1216.3399999999999</v>
       </c>
       <c r="X11" s="1">
-        <v>-108.394000</v>
+        <v>-108.39400000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>78016.333691</v>
+        <v>78016.333691000007</v>
       </c>
       <c r="AA11" s="1">
-        <v>21.671204</v>
+        <v>21.671203999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1224.340000</v>
+        <v>1224.3399999999999</v>
       </c>
       <c r="AC11" s="1">
-        <v>-91.514700</v>
+        <v>-91.514700000000005</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>78027.239758</v>
+        <v>78027.239757999996</v>
       </c>
       <c r="AF11" s="1">
-        <v>21.674233</v>
+        <v>21.674233000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1229.340000</v>
+        <v>1229.3399999999999</v>
       </c>
       <c r="AH11" s="1">
-        <v>-86.912900</v>
+        <v>-86.912899999999993</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>78037.633391</v>
+        <v>78037.633390999996</v>
       </c>
       <c r="AK11" s="1">
-        <v>21.677120</v>
+        <v>21.677119999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>1236.740000</v>
+        <v>1236.74</v>
       </c>
       <c r="AM11" s="1">
-        <v>-90.241000</v>
+        <v>-90.241</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>78048.349460</v>
+        <v>78048.349459999998</v>
       </c>
       <c r="AP11" s="1">
         <v>21.680097</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1244.850000</v>
+        <v>1244.8499999999999</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.118000</v>
+        <v>-102.11799999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>78059.047667</v>
+        <v>78059.047667000006</v>
       </c>
       <c r="AU11" s="1">
         <v>21.683069</v>
       </c>
       <c r="AV11" s="1">
-        <v>1254.950000</v>
+        <v>1254.95</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.399000</v>
+        <v>-121.399</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>78069.693829</v>
+        <v>78069.693828999996</v>
       </c>
       <c r="AZ11" s="1">
-        <v>21.686026</v>
+        <v>21.686025999999998</v>
       </c>
       <c r="BA11" s="1">
-        <v>1263.530000</v>
+        <v>1263.53</v>
       </c>
       <c r="BB11" s="1">
-        <v>-138.842000</v>
+        <v>-138.84200000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>78080.388039</v>
+        <v>78080.388038999998</v>
       </c>
       <c r="BE11" s="1">
-        <v>21.688997</v>
+        <v>21.688997000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1304.040000</v>
+        <v>1304.04</v>
       </c>
       <c r="BG11" s="1">
-        <v>-220.697000</v>
+        <v>-220.697</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>78091.289640</v>
+        <v>78091.289640000003</v>
       </c>
       <c r="BJ11" s="1">
-        <v>21.692025</v>
+        <v>21.692025000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1374.340000</v>
+        <v>1374.34</v>
       </c>
       <c r="BL11" s="1">
-        <v>-356.696000</v>
+        <v>-356.69600000000003</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>78102.720410</v>
+        <v>78102.720409999994</v>
       </c>
       <c r="BO11" s="1">
-        <v>21.695200</v>
+        <v>21.6952</v>
       </c>
       <c r="BP11" s="1">
-        <v>1489.880000</v>
+        <v>1489.88</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-577.488000</v>
+        <v>-577.48800000000006</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>78114.069899</v>
+        <v>78114.069898999995</v>
       </c>
       <c r="BT11" s="1">
-        <v>21.698353</v>
+        <v>21.698353000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1623.210000</v>
+        <v>1623.21</v>
       </c>
       <c r="BV11" s="1">
-        <v>-826.246000</v>
+        <v>-826.24599999999998</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>78124.980861</v>
+        <v>78124.980861000004</v>
       </c>
       <c r="BY11" s="1">
-        <v>21.701384</v>
+        <v>21.701384000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1776.540000</v>
+        <v>1776.54</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1094.750000</v>
+        <v>-1094.75</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>78136.924523</v>
+        <v>78136.924522999994</v>
       </c>
       <c r="CD11" s="1">
         <v>21.704701</v>
       </c>
       <c r="CE11" s="1">
-        <v>2193.460000</v>
+        <v>2193.46</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1742.220000</v>
+        <v>-1742.22</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>77963.907088</v>
+        <v>77963.907088000007</v>
       </c>
       <c r="B12" s="1">
         <v>21.656641</v>
       </c>
       <c r="C12" s="1">
-        <v>1150.140000</v>
+        <v>1150.1400000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-254.911000</v>
+        <v>-254.911</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>77974.343379</v>
+        <v>77974.343378999998</v>
       </c>
       <c r="G12" s="1">
-        <v>21.659540</v>
+        <v>21.65954</v>
       </c>
       <c r="H12" s="1">
-        <v>1171.150000</v>
+        <v>1171.1500000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-214.906000</v>
+        <v>-214.90600000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>77985.187449</v>
+        <v>77985.187449000005</v>
       </c>
       <c r="L12" s="1">
-        <v>21.662552</v>
+        <v>21.662552000000002</v>
       </c>
       <c r="M12" s="1">
-        <v>1200.410000</v>
+        <v>1200.4100000000001</v>
       </c>
       <c r="N12" s="1">
-        <v>-151.068000</v>
+        <v>-151.06800000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>77995.688216</v>
+        <v>77995.688215999995</v>
       </c>
       <c r="Q12" s="1">
-        <v>21.665469</v>
+        <v>21.665469000000002</v>
       </c>
       <c r="R12" s="1">
-        <v>1208.690000</v>
+        <v>1208.69</v>
       </c>
       <c r="S12" s="1">
-        <v>-129.155000</v>
+        <v>-129.155</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>78006.532743</v>
+        <v>78006.532743000003</v>
       </c>
       <c r="V12" s="1">
         <v>21.668481</v>
       </c>
       <c r="W12" s="1">
-        <v>1216.570000</v>
+        <v>1216.57</v>
       </c>
       <c r="X12" s="1">
-        <v>-108.372000</v>
+        <v>-108.372</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>78017.031067</v>
+        <v>78017.031067000004</v>
       </c>
       <c r="AA12" s="1">
         <v>21.671398</v>
       </c>
       <c r="AB12" s="1">
-        <v>1224.420000</v>
+        <v>1224.42</v>
       </c>
       <c r="AC12" s="1">
-        <v>-91.687200</v>
+        <v>-91.687200000000004</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>78027.583453</v>
+        <v>78027.583452999999</v>
       </c>
       <c r="AF12" s="1">
         <v>21.674329</v>
       </c>
       <c r="AG12" s="1">
-        <v>1229.350000</v>
+        <v>1229.3499999999999</v>
       </c>
       <c r="AH12" s="1">
-        <v>-86.956500</v>
+        <v>-86.956500000000005</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>78037.983566</v>
+        <v>78037.983565999995</v>
       </c>
       <c r="AK12" s="1">
         <v>21.677218</v>
       </c>
       <c r="AL12" s="1">
-        <v>1236.710000</v>
+        <v>1236.71</v>
       </c>
       <c r="AM12" s="1">
-        <v>-90.244200</v>
+        <v>-90.244200000000006</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>78048.726418</v>
+        <v>78048.726418000006</v>
       </c>
       <c r="AP12" s="1">
-        <v>21.680202</v>
+        <v>21.680202000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1244.840000</v>
+        <v>1244.8399999999999</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.118000</v>
+        <v>-102.11799999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>78059.723885</v>
+        <v>78059.723884999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>21.683257</v>
+        <v>21.683257000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>1254.950000</v>
+        <v>1254.95</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.393000</v>
+        <v>-121.393</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>78070.115939</v>
+        <v>78070.115938999996</v>
       </c>
       <c r="AZ12" s="1">
-        <v>21.686143</v>
+        <v>21.686143000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1263.530000</v>
+        <v>1263.53</v>
       </c>
       <c r="BB12" s="1">
-        <v>-138.853000</v>
+        <v>-138.85300000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>78080.808662</v>
+        <v>78080.808661999996</v>
       </c>
       <c r="BE12" s="1">
         <v>21.689114</v>
       </c>
       <c r="BF12" s="1">
-        <v>1304.030000</v>
+        <v>1304.03</v>
       </c>
       <c r="BG12" s="1">
-        <v>-220.690000</v>
+        <v>-220.69</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>78091.687895</v>
+        <v>78091.687894999995</v>
       </c>
       <c r="BJ12" s="1">
-        <v>21.692136</v>
+        <v>21.692136000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1374.400000</v>
+        <v>1374.4</v>
       </c>
       <c r="BL12" s="1">
-        <v>-356.737000</v>
+        <v>-356.73700000000002</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>78103.140520</v>
+        <v>78103.140520000001</v>
       </c>
       <c r="BO12" s="1">
-        <v>21.695317</v>
+        <v>21.695316999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1489.900000</v>
+        <v>1489.9</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-577.531000</v>
+        <v>-577.53099999999995</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>78114.501976</v>
@@ -3261,195 +3677,195 @@
         <v>21.698473</v>
       </c>
       <c r="BU12" s="1">
-        <v>1623.130000</v>
+        <v>1623.13</v>
       </c>
       <c r="BV12" s="1">
-        <v>-826.269000</v>
+        <v>-826.26900000000001</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>78125.409403</v>
+        <v>78125.409402999998</v>
       </c>
       <c r="BY12" s="1">
-        <v>21.701503</v>
+        <v>21.701502999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1776.490000</v>
+        <v>1776.49</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1094.560000</v>
+        <v>-1094.56</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>78137.429451</v>
+        <v>78137.429451000004</v>
       </c>
       <c r="CD12" s="1">
-        <v>21.704842</v>
+        <v>21.704841999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>2195.050000</v>
+        <v>2195.0500000000002</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1741.940000</v>
+        <v>-1741.94</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>77964.246816</v>
+        <v>77964.246815999999</v>
       </c>
       <c r="B13" s="1">
-        <v>21.656735</v>
+        <v>21.656735000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>1150.250000</v>
+        <v>1150.25</v>
       </c>
       <c r="D13" s="1">
-        <v>-254.894000</v>
+        <v>-254.89400000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>77974.689092</v>
+        <v>77974.689092000001</v>
       </c>
       <c r="G13" s="1">
-        <v>21.659636</v>
+        <v>21.659635999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>1172.030000</v>
+        <v>1172.03</v>
       </c>
       <c r="I13" s="1">
-        <v>-215.657000</v>
+        <v>-215.65700000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>77985.880323</v>
+        <v>77985.880323000005</v>
       </c>
       <c r="L13" s="1">
-        <v>21.662745</v>
+        <v>21.662745000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>1200.430000</v>
+        <v>1200.43</v>
       </c>
       <c r="N13" s="1">
-        <v>-150.799000</v>
+        <v>-150.79900000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>77996.383606</v>
+        <v>77996.383606000003</v>
       </c>
       <c r="Q13" s="1">
-        <v>21.665662</v>
+        <v>21.665662000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>1208.660000</v>
+        <v>1208.6600000000001</v>
       </c>
       <c r="S13" s="1">
-        <v>-129.252000</v>
+        <v>-129.25200000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>78006.875518</v>
+        <v>78006.875518000001</v>
       </c>
       <c r="V13" s="1">
-        <v>21.668577</v>
+        <v>21.668576999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>1216.370000</v>
+        <v>1216.3699999999999</v>
       </c>
       <c r="X13" s="1">
-        <v>-108.509000</v>
+        <v>-108.509</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>78017.392651</v>
+        <v>78017.392651000002</v>
       </c>
       <c r="AA13" s="1">
         <v>21.671498</v>
       </c>
       <c r="AB13" s="1">
-        <v>1224.310000</v>
+        <v>1224.31</v>
       </c>
       <c r="AC13" s="1">
-        <v>-91.519300</v>
+        <v>-91.519300000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>78027.927212</v>
+        <v>78027.927211999995</v>
       </c>
       <c r="AF13" s="1">
-        <v>21.674424</v>
+        <v>21.674423999999998</v>
       </c>
       <c r="AG13" s="1">
-        <v>1229.310000</v>
+        <v>1229.31</v>
       </c>
       <c r="AH13" s="1">
-        <v>-86.983100</v>
+        <v>-86.983099999999993</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>78038.646755</v>
+        <v>78038.646754999994</v>
       </c>
       <c r="AK13" s="1">
-        <v>21.677402</v>
+        <v>21.677402000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>1236.680000</v>
+        <v>1236.68</v>
       </c>
       <c r="AM13" s="1">
-        <v>-90.260900</v>
+        <v>-90.260900000000007</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>78049.408911</v>
+        <v>78049.408911000006</v>
       </c>
       <c r="AP13" s="1">
         <v>21.680391</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1244.840000</v>
+        <v>1244.8399999999999</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.130000</v>
+        <v>-102.13</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>78060.140849</v>
+        <v>78060.140849000003</v>
       </c>
       <c r="AU13" s="1">
-        <v>21.683372</v>
+        <v>21.683371999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>1254.960000</v>
+        <v>1254.96</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.404000</v>
+        <v>-121.404</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>78070.496325</v>
@@ -3458,3127 +3874,3127 @@
         <v>21.686249</v>
       </c>
       <c r="BA13" s="1">
-        <v>1263.520000</v>
+        <v>1263.52</v>
       </c>
       <c r="BB13" s="1">
-        <v>-138.875000</v>
+        <v>-138.875</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>78081.190565</v>
+        <v>78081.190564999997</v>
       </c>
       <c r="BE13" s="1">
-        <v>21.689220</v>
+        <v>21.689219999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1304.070000</v>
+        <v>1304.07</v>
       </c>
       <c r="BG13" s="1">
-        <v>-220.707000</v>
+        <v>-220.70699999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>78092.064391</v>
+        <v>78092.064391000007</v>
       </c>
       <c r="BJ13" s="1">
-        <v>21.692240</v>
+        <v>21.692240000000002</v>
       </c>
       <c r="BK13" s="1">
-        <v>1374.360000</v>
+        <v>1374.36</v>
       </c>
       <c r="BL13" s="1">
-        <v>-356.719000</v>
+        <v>-356.71899999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>78103.565623</v>
+        <v>78103.565623000002</v>
       </c>
       <c r="BO13" s="1">
         <v>21.695435</v>
       </c>
       <c r="BP13" s="1">
-        <v>1489.900000</v>
+        <v>1489.9</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-577.476000</v>
+        <v>-577.476</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>78114.926953</v>
+        <v>78114.926953000002</v>
       </c>
       <c r="BT13" s="1">
         <v>21.698591</v>
       </c>
       <c r="BU13" s="1">
-        <v>1623.120000</v>
+        <v>1623.12</v>
       </c>
       <c r="BV13" s="1">
-        <v>-826.222000</v>
+        <v>-826.22199999999998</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>78125.846378</v>
+        <v>78125.846378000002</v>
       </c>
       <c r="BY13" s="1">
-        <v>21.701624</v>
+        <v>21.701623999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1776.350000</v>
+        <v>1776.35</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1094.530000</v>
+        <v>-1094.53</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>78137.957226</v>
+        <v>78137.957225999999</v>
       </c>
       <c r="CD13" s="1">
         <v>21.704988</v>
       </c>
       <c r="CE13" s="1">
-        <v>2193.160000</v>
+        <v>2193.16</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1743.310000</v>
+        <v>-1743.31</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>77964.591039</v>
+        <v>77964.591039000006</v>
       </c>
       <c r="B14" s="1">
         <v>21.656831</v>
       </c>
       <c r="C14" s="1">
-        <v>1149.950000</v>
+        <v>1149.95</v>
       </c>
       <c r="D14" s="1">
-        <v>-254.884000</v>
+        <v>-254.88399999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>77975.376049</v>
+        <v>77975.376048999999</v>
       </c>
       <c r="G14" s="1">
         <v>21.659827</v>
       </c>
       <c r="H14" s="1">
-        <v>1171.440000</v>
+        <v>1171.44</v>
       </c>
       <c r="I14" s="1">
-        <v>-215.551000</v>
+        <v>-215.55099999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>77986.224051</v>
+        <v>77986.224050999997</v>
       </c>
       <c r="L14" s="1">
-        <v>21.662840</v>
+        <v>21.662839999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>1200.400000</v>
+        <v>1200.4000000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-150.848000</v>
+        <v>-150.84800000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>77996.732293</v>
+        <v>77996.732292999994</v>
       </c>
       <c r="Q14" s="1">
-        <v>21.665759</v>
+        <v>21.665759000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>1208.630000</v>
+        <v>1208.6300000000001</v>
       </c>
       <c r="S14" s="1">
-        <v>-129.163000</v>
+        <v>-129.16300000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>78007.216264</v>
+        <v>78007.216264000002</v>
       </c>
       <c r="V14" s="1">
         <v>21.668671</v>
       </c>
       <c r="W14" s="1">
-        <v>1216.410000</v>
+        <v>1216.4100000000001</v>
       </c>
       <c r="X14" s="1">
-        <v>-108.482000</v>
+        <v>-108.482</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>78017.737865</v>
+        <v>78017.737865000003</v>
       </c>
       <c r="AA14" s="1">
-        <v>21.671594</v>
+        <v>21.671593999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1224.340000</v>
+        <v>1224.3399999999999</v>
       </c>
       <c r="AC14" s="1">
-        <v>-91.592000</v>
+        <v>-91.591999999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>78028.589868</v>
+        <v>78028.589867999995</v>
       </c>
       <c r="AF14" s="1">
-        <v>21.674608</v>
+        <v>21.674607999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>1229.390000</v>
+        <v>1229.3900000000001</v>
       </c>
       <c r="AH14" s="1">
-        <v>-86.939500</v>
+        <v>-86.939499999999995</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>78039.028141</v>
+        <v>78039.028141000003</v>
       </c>
       <c r="AK14" s="1">
         <v>21.677508</v>
       </c>
       <c r="AL14" s="1">
-        <v>1236.710000</v>
+        <v>1236.71</v>
       </c>
       <c r="AM14" s="1">
-        <v>-90.251000</v>
+        <v>-90.251000000000005</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>78049.809183</v>
+        <v>78049.809183000005</v>
       </c>
       <c r="AP14" s="1">
-        <v>21.680503</v>
+        <v>21.680503000000002</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1244.830000</v>
+        <v>1244.83</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.118000</v>
+        <v>-102.11799999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>78060.508882</v>
+        <v>78060.508881999995</v>
       </c>
       <c r="AU14" s="1">
-        <v>21.683475</v>
+        <v>21.683475000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1254.970000</v>
+        <v>1254.97</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.404000</v>
+        <v>-121.404</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>78070.853971</v>
+        <v>78070.853971000004</v>
       </c>
       <c r="AZ14" s="1">
-        <v>21.686348</v>
+        <v>21.686347999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1263.530000</v>
+        <v>1263.53</v>
       </c>
       <c r="BB14" s="1">
-        <v>-138.875000</v>
+        <v>-138.875</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>78081.553153</v>
+        <v>78081.553153000001</v>
       </c>
       <c r="BE14" s="1">
-        <v>21.689320</v>
+        <v>21.689319999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1304.040000</v>
+        <v>1304.04</v>
       </c>
       <c r="BG14" s="1">
-        <v>-220.698000</v>
+        <v>-220.69800000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>78092.481032</v>
+        <v>78092.481031999996</v>
       </c>
       <c r="BJ14" s="1">
         <v>21.692356</v>
       </c>
       <c r="BK14" s="1">
-        <v>1374.380000</v>
+        <v>1374.38</v>
       </c>
       <c r="BL14" s="1">
-        <v>-356.705000</v>
+        <v>-356.70499999999998</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>78103.957463</v>
+        <v>78103.957462999999</v>
       </c>
       <c r="BO14" s="1">
-        <v>21.695544</v>
+        <v>21.695544000000002</v>
       </c>
       <c r="BP14" s="1">
-        <v>1489.960000</v>
+        <v>1489.96</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-577.465000</v>
+        <v>-577.46500000000003</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>78115.344088</v>
+        <v>78115.344087999998</v>
       </c>
       <c r="BT14" s="1">
-        <v>21.698707</v>
+        <v>21.698706999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1623.030000</v>
+        <v>1623.03</v>
       </c>
       <c r="BV14" s="1">
-        <v>-826.210000</v>
+        <v>-826.21</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>78126.268506</v>
+        <v>78126.268505999993</v>
       </c>
       <c r="BY14" s="1">
-        <v>21.701741</v>
+        <v>21.701740999999998</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1776.520000</v>
+        <v>1776.52</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1094.830000</v>
+        <v>-1094.83</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>78138.477499</v>
+        <v>78138.477499000001</v>
       </c>
       <c r="CD14" s="1">
         <v>21.705133</v>
       </c>
       <c r="CE14" s="1">
-        <v>2194.010000</v>
+        <v>2194.0100000000002</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1741.940000</v>
+        <v>-1741.94</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>77965.271550</v>
+        <v>77965.271550000005</v>
       </c>
       <c r="B15" s="1">
-        <v>21.657020</v>
+        <v>21.657019999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>1149.740000</v>
+        <v>1149.74</v>
       </c>
       <c r="D15" s="1">
-        <v>-254.841000</v>
+        <v>-254.84100000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>77975.724739</v>
+        <v>77975.724738999997</v>
       </c>
       <c r="G15" s="1">
         <v>21.659924</v>
       </c>
       <c r="H15" s="1">
-        <v>1171.230000</v>
+        <v>1171.23</v>
       </c>
       <c r="I15" s="1">
-        <v>-215.345000</v>
+        <v>-215.345</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>77986.569800</v>
+        <v>77986.569799999997</v>
       </c>
       <c r="L15" s="1">
-        <v>21.662936</v>
+        <v>21.662935999999998</v>
       </c>
       <c r="M15" s="1">
-        <v>1200.200000</v>
+        <v>1200.2</v>
       </c>
       <c r="N15" s="1">
-        <v>-150.897000</v>
+        <v>-150.89699999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>77997.084452</v>
+        <v>77997.084451999996</v>
       </c>
       <c r="Q15" s="1">
-        <v>21.665857</v>
+        <v>21.665856999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>1208.590000</v>
+        <v>1208.5899999999999</v>
       </c>
       <c r="S15" s="1">
-        <v>-129.158000</v>
+        <v>-129.15799999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>78007.877425</v>
+        <v>78007.877424999999</v>
       </c>
       <c r="V15" s="1">
-        <v>21.668855</v>
+        <v>21.668855000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>1216.280000</v>
+        <v>1216.28</v>
       </c>
       <c r="X15" s="1">
-        <v>-108.464000</v>
+        <v>-108.464</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>78018.433256</v>
+        <v>78018.433256000004</v>
       </c>
       <c r="AA15" s="1">
-        <v>21.671787</v>
+        <v>21.671786999999998</v>
       </c>
       <c r="AB15" s="1">
-        <v>1224.320000</v>
+        <v>1224.32</v>
       </c>
       <c r="AC15" s="1">
-        <v>-91.540900</v>
+        <v>-91.540899999999993</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>78028.956874</v>
+        <v>78028.956873999996</v>
       </c>
       <c r="AF15" s="1">
-        <v>21.674710</v>
+        <v>21.674710000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>1229.320000</v>
+        <v>1229.32</v>
       </c>
       <c r="AH15" s="1">
-        <v>-86.983600</v>
+        <v>-86.983599999999996</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>78039.378349</v>
+        <v>78039.378349000006</v>
       </c>
       <c r="AK15" s="1">
         <v>21.677605</v>
       </c>
       <c r="AL15" s="1">
-        <v>1236.680000</v>
+        <v>1236.68</v>
       </c>
       <c r="AM15" s="1">
-        <v>-90.249900</v>
+        <v>-90.249899999999997</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>78050.197054</v>
+        <v>78050.197054000004</v>
       </c>
       <c r="AP15" s="1">
-        <v>21.680610</v>
+        <v>21.680610000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1244.820000</v>
+        <v>1244.82</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.123000</v>
+        <v>-102.123</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>78060.870993</v>
+        <v>78060.870993000004</v>
       </c>
       <c r="AU15" s="1">
-        <v>21.683575</v>
+        <v>21.683575000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1254.960000</v>
+        <v>1254.96</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.414000</v>
+        <v>-121.414</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>78071.280530</v>
+        <v>78071.280530000004</v>
       </c>
       <c r="AZ15" s="1">
         <v>21.686467</v>
       </c>
       <c r="BA15" s="1">
-        <v>1263.530000</v>
+        <v>1263.53</v>
       </c>
       <c r="BB15" s="1">
-        <v>-138.865000</v>
+        <v>-138.86500000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>78081.986645</v>
+        <v>78081.986644999997</v>
       </c>
       <c r="BE15" s="1">
-        <v>21.689441</v>
+        <v>21.689440999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1304.040000</v>
+        <v>1304.04</v>
       </c>
       <c r="BG15" s="1">
-        <v>-220.709000</v>
+        <v>-220.709</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>78092.842618</v>
+        <v>78092.842617999995</v>
       </c>
       <c r="BJ15" s="1">
         <v>21.692456</v>
       </c>
       <c r="BK15" s="1">
-        <v>1374.400000</v>
+        <v>1374.4</v>
       </c>
       <c r="BL15" s="1">
-        <v>-356.730000</v>
+        <v>-356.73</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>78104.351254</v>
+        <v>78104.351253999994</v>
       </c>
       <c r="BO15" s="1">
         <v>21.695653</v>
       </c>
       <c r="BP15" s="1">
-        <v>1489.880000</v>
+        <v>1489.88</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-577.502000</v>
+        <v>-577.50199999999995</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>78115.771639</v>
+        <v>78115.771638999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>21.698825</v>
+        <v>21.698824999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1622.960000</v>
+        <v>1622.96</v>
       </c>
       <c r="BV15" s="1">
-        <v>-826.226000</v>
+        <v>-826.226</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>78126.690073</v>
+        <v>78126.690073000005</v>
       </c>
       <c r="BY15" s="1">
-        <v>21.701858</v>
+        <v>21.701858000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1776.530000</v>
+        <v>1776.53</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1094.780000</v>
+        <v>-1094.78</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>78139.031530</v>
+        <v>78139.031529999993</v>
       </c>
       <c r="CD15" s="1">
-        <v>21.705287</v>
+        <v>21.705286999999998</v>
       </c>
       <c r="CE15" s="1">
-        <v>2195.370000</v>
+        <v>2195.37</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1742.160000</v>
+        <v>-1742.16</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>77965.617295</v>
+        <v>77965.617295000004</v>
       </c>
       <c r="B16" s="1">
-        <v>21.657116</v>
+        <v>21.657115999999998</v>
       </c>
       <c r="C16" s="1">
-        <v>1150.010000</v>
+        <v>1150.01</v>
       </c>
       <c r="D16" s="1">
-        <v>-254.910000</v>
+        <v>-254.91</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>77976.070946</v>
+        <v>77976.070946000007</v>
       </c>
       <c r="G16" s="1">
-        <v>21.660020</v>
+        <v>21.660019999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>1171.660000</v>
+        <v>1171.6600000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-214.993000</v>
+        <v>-214.99299999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>77987.223490</v>
+        <v>77987.223490000004</v>
       </c>
       <c r="L16" s="1">
-        <v>21.663118</v>
+        <v>21.663118000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>1200.400000</v>
+        <v>1200.4000000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-150.951000</v>
+        <v>-150.95099999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>77997.753555</v>
+        <v>77997.753555000003</v>
       </c>
       <c r="Q16" s="1">
-        <v>21.666043</v>
+        <v>21.666042999999998</v>
       </c>
       <c r="R16" s="1">
-        <v>1208.680000</v>
+        <v>1208.68</v>
       </c>
       <c r="S16" s="1">
-        <v>-129.130000</v>
+        <v>-129.13</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>78008.249894</v>
+        <v>78008.249893999993</v>
       </c>
       <c r="V16" s="1">
         <v>21.668958</v>
       </c>
       <c r="W16" s="1">
-        <v>1216.440000</v>
+        <v>1216.44</v>
       </c>
       <c r="X16" s="1">
-        <v>-108.500000</v>
+        <v>-108.5</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>78018.785416</v>
+        <v>78018.785415999999</v>
       </c>
       <c r="AA16" s="1">
         <v>21.671885</v>
       </c>
       <c r="AB16" s="1">
-        <v>1224.460000</v>
+        <v>1224.46</v>
       </c>
       <c r="AC16" s="1">
-        <v>-91.582400</v>
+        <v>-91.582400000000007</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>78029.301102</v>
+        <v>78029.301101999998</v>
       </c>
       <c r="AF16" s="1">
         <v>21.674806</v>
       </c>
       <c r="AG16" s="1">
-        <v>1229.290000</v>
+        <v>1229.29</v>
       </c>
       <c r="AH16" s="1">
-        <v>-87.013800</v>
+        <v>-87.013800000000003</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>78039.726044</v>
+        <v>78039.726043999995</v>
       </c>
       <c r="AK16" s="1">
         <v>21.677702</v>
       </c>
       <c r="AL16" s="1">
-        <v>1236.680000</v>
+        <v>1236.68</v>
       </c>
       <c r="AM16" s="1">
-        <v>-90.249700</v>
+        <v>-90.249700000000004</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>78050.557646</v>
+        <v>78050.557646000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>21.680710</v>
+        <v>21.680710000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1244.860000</v>
+        <v>1244.8599999999999</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.086000</v>
+        <v>-102.086</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>78061.298015</v>
+        <v>78061.298014999993</v>
       </c>
       <c r="AU16" s="1">
-        <v>21.683694</v>
+        <v>21.683693999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1254.960000</v>
+        <v>1254.96</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.402000</v>
+        <v>-121.402</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>78071.569702</v>
+        <v>78071.569701999993</v>
       </c>
       <c r="AZ16" s="1">
-        <v>21.686547</v>
+        <v>21.686547000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1263.550000</v>
+        <v>1263.55</v>
       </c>
       <c r="BB16" s="1">
-        <v>-138.886000</v>
+        <v>-138.886</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>78082.274820</v>
+        <v>78082.274820000006</v>
       </c>
       <c r="BE16" s="1">
-        <v>21.689521</v>
+        <v>21.689520999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1304.060000</v>
+        <v>1304.06</v>
       </c>
       <c r="BG16" s="1">
-        <v>-220.678000</v>
+        <v>-220.678</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>78093.216598</v>
+        <v>78093.216597999999</v>
       </c>
       <c r="BJ16" s="1">
-        <v>21.692560</v>
+        <v>21.69256</v>
       </c>
       <c r="BK16" s="1">
-        <v>1374.370000</v>
+        <v>1374.37</v>
       </c>
       <c r="BL16" s="1">
-        <v>-356.711000</v>
+        <v>-356.71100000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>78104.773351</v>
+        <v>78104.773350999996</v>
       </c>
       <c r="BO16" s="1">
-        <v>21.695770</v>
+        <v>21.69577</v>
       </c>
       <c r="BP16" s="1">
-        <v>1489.940000</v>
+        <v>1489.94</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-577.531000</v>
+        <v>-577.53099999999995</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>78116.181335</v>
+        <v>78116.181335000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>21.698939</v>
+        <v>21.698938999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1622.980000</v>
+        <v>1622.98</v>
       </c>
       <c r="BV16" s="1">
-        <v>-826.255000</v>
+        <v>-826.255</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>78127.137465</v>
+        <v>78127.137465000007</v>
       </c>
       <c r="BY16" s="1">
-        <v>21.701983</v>
+        <v>21.701982999999998</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1776.390000</v>
+        <v>1776.39</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1094.720000</v>
+        <v>-1094.72</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>78139.559801</v>
+        <v>78139.559800999996</v>
       </c>
       <c r="CD16" s="1">
-        <v>21.705433</v>
+        <v>21.705432999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>2193.120000</v>
+        <v>2193.12</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1742.580000</v>
+        <v>-1742.58</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>77965.959999</v>
+        <v>77965.959998999999</v>
       </c>
       <c r="B17" s="1">
         <v>21.657211</v>
       </c>
       <c r="C17" s="1">
-        <v>1149.830000</v>
+        <v>1149.83</v>
       </c>
       <c r="D17" s="1">
-        <v>-254.874000</v>
+        <v>-254.874</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>77976.736119</v>
+        <v>77976.736118999994</v>
       </c>
       <c r="G17" s="1">
         <v>21.660204</v>
       </c>
       <c r="H17" s="1">
-        <v>1171.710000</v>
+        <v>1171.71</v>
       </c>
       <c r="I17" s="1">
-        <v>-215.330000</v>
+        <v>-215.33</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>77987.608385</v>
       </c>
       <c r="L17" s="1">
-        <v>21.663225</v>
+        <v>21.663225000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>1200.230000</v>
+        <v>1200.23</v>
       </c>
       <c r="N17" s="1">
-        <v>-150.873000</v>
+        <v>-150.87299999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>77998.127070</v>
+        <v>77998.127070000002</v>
       </c>
       <c r="Q17" s="1">
-        <v>21.666146</v>
+        <v>21.666146000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>1208.620000</v>
+        <v>1208.6199999999999</v>
       </c>
       <c r="S17" s="1">
-        <v>-129.161000</v>
+        <v>-129.161</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>78008.592629</v>
+        <v>78008.592629000006</v>
       </c>
       <c r="V17" s="1">
-        <v>21.669054</v>
+        <v>21.669053999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>1216.520000</v>
+        <v>1216.52</v>
       </c>
       <c r="X17" s="1">
-        <v>-108.507000</v>
+        <v>-108.50700000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>78019.132152</v>
+        <v>78019.132152000006</v>
       </c>
       <c r="AA17" s="1">
-        <v>21.671981</v>
+        <v>21.671980999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>1224.390000</v>
+        <v>1224.3900000000001</v>
       </c>
       <c r="AC17" s="1">
-        <v>-91.510800</v>
+        <v>-91.510800000000003</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>78029.645353</v>
       </c>
       <c r="AF17" s="1">
-        <v>21.674901</v>
+        <v>21.674900999999998</v>
       </c>
       <c r="AG17" s="1">
-        <v>1229.330000</v>
+        <v>1229.33</v>
       </c>
       <c r="AH17" s="1">
-        <v>-87.012300</v>
+        <v>-87.012299999999996</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>78040.148139</v>
+        <v>78040.148138999997</v>
       </c>
       <c r="AK17" s="1">
         <v>21.677819</v>
       </c>
       <c r="AL17" s="1">
-        <v>1236.700000</v>
+        <v>1236.7</v>
       </c>
       <c r="AM17" s="1">
-        <v>-90.283600</v>
+        <v>-90.283600000000007</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>78051.027359</v>
       </c>
       <c r="AP17" s="1">
-        <v>21.680841</v>
+        <v>21.680841000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1244.820000</v>
+        <v>1244.82</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.108000</v>
+        <v>-102.108</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>78061.600079</v>
+        <v>78061.600078999996</v>
       </c>
       <c r="AU17" s="1">
         <v>21.683778</v>
       </c>
       <c r="AV17" s="1">
-        <v>1254.970000</v>
+        <v>1254.97</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.394000</v>
+        <v>-121.39400000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>78071.930789</v>
+        <v>78071.930789000005</v>
       </c>
       <c r="AZ17" s="1">
-        <v>21.686647</v>
+        <v>21.686647000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1263.550000</v>
+        <v>1263.55</v>
       </c>
       <c r="BB17" s="1">
-        <v>-138.877000</v>
+        <v>-138.87700000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>78082.632931</v>
       </c>
       <c r="BE17" s="1">
-        <v>21.689620</v>
+        <v>21.689620000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1304.060000</v>
+        <v>1304.06</v>
       </c>
       <c r="BG17" s="1">
-        <v>-220.685000</v>
+        <v>-220.685</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>78093.592037</v>
+        <v>78093.592036999995</v>
       </c>
       <c r="BJ17" s="1">
-        <v>21.692664</v>
+        <v>21.692664000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1374.350000</v>
+        <v>1374.35</v>
       </c>
       <c r="BL17" s="1">
-        <v>-356.701000</v>
+        <v>-356.70100000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>78105.591254</v>
+        <v>78105.591253999999</v>
       </c>
       <c r="BO17" s="1">
-        <v>21.695998</v>
+        <v>21.695997999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1489.940000</v>
+        <v>1489.94</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-577.521000</v>
+        <v>-577.52099999999996</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>78116.610870</v>
+        <v>78116.610870000004</v>
       </c>
       <c r="BT17" s="1">
-        <v>21.699059</v>
+        <v>21.699058999999998</v>
       </c>
       <c r="BU17" s="1">
-        <v>1622.780000</v>
+        <v>1622.78</v>
       </c>
       <c r="BV17" s="1">
-        <v>-826.237000</v>
+        <v>-826.23699999999997</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>78127.570473</v>
       </c>
       <c r="BY17" s="1">
-        <v>21.702103</v>
+        <v>21.702103000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1776.520000</v>
+        <v>1776.52</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1094.740000</v>
+        <v>-1094.74</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>78140.079575</v>
+        <v>78140.079574999996</v>
       </c>
       <c r="CD17" s="1">
-        <v>21.705578</v>
+        <v>21.705577999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>2193.870000</v>
+        <v>2193.87</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1744.440000</v>
+        <v>-1744.44</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>77966.615462</v>
+        <v>77966.615462000002</v>
       </c>
       <c r="B18" s="1">
-        <v>21.657393</v>
+        <v>21.657392999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1150.220000</v>
+        <v>1150.22</v>
       </c>
       <c r="D18" s="1">
-        <v>-254.647000</v>
+        <v>-254.64699999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>77977.108606</v>
+        <v>77977.108605999994</v>
       </c>
       <c r="G18" s="1">
-        <v>21.660308</v>
+        <v>21.660308000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>1171.900000</v>
+        <v>1171.9000000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-215.121000</v>
+        <v>-215.12100000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>77987.955585</v>
+        <v>77987.955585000003</v>
       </c>
       <c r="L18" s="1">
         <v>21.663321</v>
       </c>
       <c r="M18" s="1">
-        <v>1200.490000</v>
+        <v>1200.49</v>
       </c>
       <c r="N18" s="1">
-        <v>-150.920000</v>
+        <v>-150.91999999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>77998.475732</v>
+        <v>77998.475732000006</v>
       </c>
       <c r="Q18" s="1">
-        <v>21.666243</v>
+        <v>21.666243000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1208.660000</v>
+        <v>1208.6600000000001</v>
       </c>
       <c r="S18" s="1">
-        <v>-129.196000</v>
+        <v>-129.196</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>78008.945284</v>
+        <v>78008.945284000001</v>
       </c>
       <c r="V18" s="1">
-        <v>21.669151</v>
+        <v>21.669150999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>1216.470000</v>
+        <v>1216.47</v>
       </c>
       <c r="X18" s="1">
-        <v>-108.458000</v>
+        <v>-108.458</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>78019.563639</v>
       </c>
       <c r="AA18" s="1">
-        <v>21.672101</v>
+        <v>21.672101000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>1224.470000</v>
+        <v>1224.47</v>
       </c>
       <c r="AC18" s="1">
-        <v>-91.525300</v>
+        <v>-91.525300000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>78030.068409</v>
       </c>
       <c r="AF18" s="1">
-        <v>21.675019</v>
+        <v>21.675018999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>1229.280000</v>
+        <v>1229.28</v>
       </c>
       <c r="AH18" s="1">
-        <v>-87.041800</v>
+        <v>-87.041799999999995</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>78040.430331</v>
+        <v>78040.430330999996</v>
       </c>
       <c r="AK18" s="1">
-        <v>21.677897</v>
+        <v>21.677897000000002</v>
       </c>
       <c r="AL18" s="1">
-        <v>1236.710000</v>
+        <v>1236.71</v>
       </c>
       <c r="AM18" s="1">
-        <v>-90.254900</v>
+        <v>-90.254900000000006</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>78051.282300</v>
+        <v>78051.282300000006</v>
       </c>
       <c r="AP18" s="1">
-        <v>21.680912</v>
+        <v>21.680911999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1244.840000</v>
+        <v>1244.8399999999999</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.121000</v>
+        <v>-102.121</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>78061.966624</v>
+        <v>78061.966623999993</v>
       </c>
       <c r="AU18" s="1">
-        <v>21.683880</v>
+        <v>21.683879999999998</v>
       </c>
       <c r="AV18" s="1">
-        <v>1254.980000</v>
+        <v>1254.98</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.388000</v>
+        <v>-121.38800000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>78072.286914</v>
+        <v>78072.286913999997</v>
       </c>
       <c r="AZ18" s="1">
-        <v>21.686746</v>
+        <v>21.686745999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1263.540000</v>
+        <v>1263.54</v>
       </c>
       <c r="BB18" s="1">
-        <v>-138.864000</v>
+        <v>-138.864</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>78082.997491</v>
+        <v>78082.997491000002</v>
       </c>
       <c r="BE18" s="1">
         <v>21.689722</v>
       </c>
       <c r="BF18" s="1">
-        <v>1304.060000</v>
+        <v>1304.06</v>
       </c>
       <c r="BG18" s="1">
-        <v>-220.698000</v>
+        <v>-220.69800000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>78094.342980</v>
+        <v>78094.342980000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>21.692873</v>
+        <v>21.692872999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1374.350000</v>
+        <v>1374.35</v>
       </c>
       <c r="BL18" s="1">
-        <v>-356.726000</v>
+        <v>-356.726</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>78106.007396</v>
+        <v>78106.007396000001</v>
       </c>
       <c r="BO18" s="1">
         <v>21.696113</v>
       </c>
       <c r="BP18" s="1">
-        <v>1489.970000</v>
+        <v>1489.97</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-577.520000</v>
+        <v>-577.52</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>78117.038422</v>
+        <v>78117.038421999998</v>
       </c>
       <c r="BT18" s="1">
-        <v>21.699177</v>
+        <v>21.699176999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1622.790000</v>
+        <v>1622.79</v>
       </c>
       <c r="BV18" s="1">
-        <v>-826.022000</v>
+        <v>-826.02200000000005</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>78127.990087</v>
+        <v>78127.990086999998</v>
       </c>
       <c r="BY18" s="1">
-        <v>21.702219</v>
+        <v>21.702218999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1776.540000</v>
+        <v>1776.54</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1094.900000</v>
+        <v>-1094.9000000000001</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>78140.906902</v>
+        <v>78140.906902000002</v>
       </c>
       <c r="CD18" s="1">
         <v>21.705807</v>
       </c>
       <c r="CE18" s="1">
-        <v>2195.830000</v>
+        <v>2195.83</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1743.850000</v>
+        <v>-1743.85</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>77967.122124</v>
+        <v>77967.122124000001</v>
       </c>
       <c r="B19" s="1">
-        <v>21.657534</v>
+        <v>21.657533999999998</v>
       </c>
       <c r="C19" s="1">
-        <v>1150.090000</v>
+        <v>1150.0899999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-254.647000</v>
+        <v>-254.64699999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>77977.453798</v>
+        <v>77977.453798000002</v>
       </c>
       <c r="G19" s="1">
         <v>21.660404</v>
       </c>
       <c r="H19" s="1">
-        <v>1171.730000</v>
+        <v>1171.73</v>
       </c>
       <c r="I19" s="1">
-        <v>-214.876000</v>
+        <v>-214.876</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>77988.298816</v>
+        <v>77988.298815999995</v>
       </c>
       <c r="L19" s="1">
-        <v>21.663416</v>
+        <v>21.663416000000002</v>
       </c>
       <c r="M19" s="1">
-        <v>1200.320000</v>
+        <v>1200.32</v>
       </c>
       <c r="N19" s="1">
-        <v>-150.817000</v>
+        <v>-150.81700000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>77998.822931</v>
+        <v>77998.822931000002</v>
       </c>
       <c r="Q19" s="1">
-        <v>21.666340</v>
+        <v>21.666340000000002</v>
       </c>
       <c r="R19" s="1">
-        <v>1208.630000</v>
+        <v>1208.6300000000001</v>
       </c>
       <c r="S19" s="1">
-        <v>-129.184000</v>
+        <v>-129.184</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>78009.376804</v>
       </c>
       <c r="V19" s="1">
-        <v>21.669271</v>
+        <v>21.669270999999998</v>
       </c>
       <c r="W19" s="1">
-        <v>1216.450000</v>
+        <v>1216.45</v>
       </c>
       <c r="X19" s="1">
-        <v>-108.404000</v>
+        <v>-108.404</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>78019.841400</v>
+        <v>78019.841400000005</v>
       </c>
       <c r="AA19" s="1">
-        <v>21.672178</v>
+        <v>21.672177999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>1224.370000</v>
+        <v>1224.3699999999999</v>
       </c>
       <c r="AC19" s="1">
-        <v>-91.540600</v>
+        <v>-91.540599999999998</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>78030.357577</v>
+        <v>78030.357577000002</v>
       </c>
       <c r="AF19" s="1">
-        <v>21.675099</v>
+        <v>21.675098999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>1229.160000</v>
+        <v>1229.1600000000001</v>
       </c>
       <c r="AH19" s="1">
-        <v>-86.844400</v>
+        <v>-86.844399999999993</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>78040.777531</v>
       </c>
       <c r="AK19" s="1">
-        <v>21.677994</v>
+        <v>21.677994000000002</v>
       </c>
       <c r="AL19" s="1">
-        <v>1236.680000</v>
+        <v>1236.68</v>
       </c>
       <c r="AM19" s="1">
-        <v>-90.247000</v>
+        <v>-90.247</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>78051.637965</v>
+        <v>78051.637965000002</v>
       </c>
       <c r="AP19" s="1">
-        <v>21.681011</v>
+        <v>21.681011000000002</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1244.810000</v>
+        <v>1244.81</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.127000</v>
+        <v>-102.127</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>78062.331182</v>
+        <v>78062.331181999994</v>
       </c>
       <c r="AU19" s="1">
-        <v>21.683981</v>
+        <v>21.683980999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1254.970000</v>
+        <v>1254.97</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.401000</v>
+        <v>-121.401</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>78073.008560</v>
+        <v>78073.008560000002</v>
       </c>
       <c r="AZ19" s="1">
         <v>21.686947</v>
       </c>
       <c r="BA19" s="1">
-        <v>1263.520000</v>
+        <v>1263.52</v>
       </c>
       <c r="BB19" s="1">
-        <v>-138.847000</v>
+        <v>-138.84700000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>78083.719666</v>
+        <v>78083.719666000005</v>
       </c>
       <c r="BE19" s="1">
-        <v>21.689922</v>
+        <v>21.689921999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1304.020000</v>
+        <v>1304.02</v>
       </c>
       <c r="BG19" s="1">
-        <v>-220.686000</v>
+        <v>-220.68600000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>78094.719475</v>
+        <v>78094.719475000005</v>
       </c>
       <c r="BJ19" s="1">
         <v>21.692978</v>
       </c>
       <c r="BK19" s="1">
-        <v>1374.340000</v>
+        <v>1374.34</v>
       </c>
       <c r="BL19" s="1">
-        <v>-356.757000</v>
+        <v>-356.75700000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>78106.406713</v>
+        <v>78106.406713000004</v>
       </c>
       <c r="BO19" s="1">
-        <v>21.696224</v>
+        <v>21.696224000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1489.910000</v>
+        <v>1489.91</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-577.528000</v>
+        <v>-577.52800000000002</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>78117.452085</v>
+        <v>78117.452084999997</v>
       </c>
       <c r="BT19" s="1">
         <v>21.699292</v>
       </c>
       <c r="BU19" s="1">
-        <v>1622.780000</v>
+        <v>1622.78</v>
       </c>
       <c r="BV19" s="1">
-        <v>-826.059000</v>
+        <v>-826.05899999999997</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>78128.735111</v>
+        <v>78128.735111000002</v>
       </c>
       <c r="BY19" s="1">
-        <v>21.702426</v>
+        <v>21.702425999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1776.500000</v>
+        <v>1776.5</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1094.700000</v>
+        <v>-1094.7</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>78141.146967</v>
+        <v>78141.146966999993</v>
       </c>
       <c r="CD19" s="1">
-        <v>21.705874</v>
+        <v>21.705874000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>2193.650000</v>
+        <v>2193.65</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1742.020000</v>
+        <v>-1742.02</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>77967.324989</v>
+        <v>77967.324989000001</v>
       </c>
       <c r="B20" s="1">
-        <v>21.657590</v>
+        <v>21.657589999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>1150.180000</v>
+        <v>1150.18</v>
       </c>
       <c r="D20" s="1">
-        <v>-254.829000</v>
+        <v>-254.82900000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>77977.796526</v>
+        <v>77977.796526000006</v>
       </c>
       <c r="G20" s="1">
-        <v>21.660499</v>
+        <v>21.660499000000002</v>
       </c>
       <c r="H20" s="1">
-        <v>1171.520000</v>
+        <v>1171.52</v>
       </c>
       <c r="I20" s="1">
-        <v>-215.188000</v>
+        <v>-215.18799999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>77988.720417</v>
+        <v>77988.720417000004</v>
       </c>
       <c r="L20" s="1">
-        <v>21.663533</v>
+        <v>21.663533000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>1200.350000</v>
+        <v>1200.3499999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>-150.894000</v>
+        <v>-150.89400000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>77999.252467</v>
+        <v>77999.252466999998</v>
       </c>
       <c r="Q20" s="1">
         <v>21.666459</v>
       </c>
       <c r="R20" s="1">
-        <v>1208.550000</v>
+        <v>1208.55</v>
       </c>
       <c r="S20" s="1">
-        <v>-129.235000</v>
+        <v>-129.23500000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>78009.647132</v>
+        <v>78009.647131999998</v>
       </c>
       <c r="V20" s="1">
-        <v>21.669346</v>
+        <v>21.669346000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>1216.400000</v>
+        <v>1216.4000000000001</v>
       </c>
       <c r="X20" s="1">
-        <v>-108.265000</v>
+        <v>-108.265</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>78020.185622</v>
+        <v>78020.185622000005</v>
       </c>
       <c r="AA20" s="1">
-        <v>21.672274</v>
+        <v>21.672274000000002</v>
       </c>
       <c r="AB20" s="1">
-        <v>1224.320000</v>
+        <v>1224.32</v>
       </c>
       <c r="AC20" s="1">
-        <v>-91.510500</v>
+        <v>-91.510499999999993</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>78030.694361</v>
+        <v>78030.694361000002</v>
       </c>
       <c r="AF20" s="1">
         <v>21.675193</v>
       </c>
       <c r="AG20" s="1">
-        <v>1229.270000</v>
+        <v>1229.27</v>
       </c>
       <c r="AH20" s="1">
-        <v>-87.157000</v>
+        <v>-87.156999999999996</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>78041.126218</v>
+        <v>78041.126218000005</v>
       </c>
       <c r="AK20" s="1">
-        <v>21.678091</v>
+        <v>21.678090999999998</v>
       </c>
       <c r="AL20" s="1">
-        <v>1236.690000</v>
+        <v>1236.69</v>
       </c>
       <c r="AM20" s="1">
-        <v>-90.251400</v>
+        <v>-90.251400000000004</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>78052.357629</v>
+        <v>78052.357629000006</v>
       </c>
       <c r="AP20" s="1">
-        <v>21.681210</v>
+        <v>21.68121</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1244.860000</v>
+        <v>1244.8599999999999</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.109000</v>
+        <v>-102.10899999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>78063.060797</v>
+        <v>78063.060796999998</v>
       </c>
       <c r="AU20" s="1">
-        <v>21.684184</v>
+        <v>21.684183999999998</v>
       </c>
       <c r="AV20" s="1">
-        <v>1254.980000</v>
+        <v>1254.98</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.398000</v>
+        <v>-121.398</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>78073.388496</v>
       </c>
       <c r="AZ20" s="1">
-        <v>21.687052</v>
+        <v>21.687052000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1263.520000</v>
+        <v>1263.52</v>
       </c>
       <c r="BB20" s="1">
-        <v>-138.848000</v>
+        <v>-138.84800000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>78084.109521</v>
+        <v>78084.109521000006</v>
       </c>
       <c r="BE20" s="1">
-        <v>21.690030</v>
+        <v>21.69003</v>
       </c>
       <c r="BF20" s="1">
-        <v>1304.080000</v>
+        <v>1304.08</v>
       </c>
       <c r="BG20" s="1">
-        <v>-220.688000</v>
+        <v>-220.68799999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>78095.094915</v>
+        <v>78095.094914999994</v>
       </c>
       <c r="BJ20" s="1">
         <v>21.693082</v>
       </c>
       <c r="BK20" s="1">
-        <v>1374.360000</v>
+        <v>1374.36</v>
       </c>
       <c r="BL20" s="1">
-        <v>-356.715000</v>
+        <v>-356.71499999999997</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>78107.147731</v>
+        <v>78107.147731000005</v>
       </c>
       <c r="BO20" s="1">
-        <v>21.696430</v>
+        <v>21.696429999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1489.880000</v>
+        <v>1489.88</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-577.526000</v>
+        <v>-577.52599999999995</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>78118.214436</v>
+        <v>78118.214435999995</v>
       </c>
       <c r="BT20" s="1">
-        <v>21.699504</v>
+        <v>21.699504000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1622.870000</v>
+        <v>1622.87</v>
       </c>
       <c r="BV20" s="1">
-        <v>-825.929000</v>
+        <v>-825.92899999999997</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>78128.877430</v>
+        <v>78128.877429999993</v>
       </c>
       <c r="BY20" s="1">
-        <v>21.702466</v>
+        <v>21.702466000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1776.510000</v>
+        <v>1776.51</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1094.710000</v>
+        <v>-1094.71</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>78141.678715</v>
+        <v>78141.678715000002</v>
       </c>
       <c r="CD20" s="1">
-        <v>21.706022</v>
+        <v>21.706022000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>2194.780000</v>
+        <v>2194.7800000000002</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1744.620000</v>
+        <v>-1744.62</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>77967.780811</v>
+        <v>77967.780811000004</v>
       </c>
       <c r="B21" s="1">
-        <v>21.657717</v>
+        <v>21.657717000000002</v>
       </c>
       <c r="C21" s="1">
-        <v>1150.230000</v>
+        <v>1150.23</v>
       </c>
       <c r="D21" s="1">
-        <v>-254.928000</v>
+        <v>-254.928</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>77978.223085</v>
+        <v>77978.223085000005</v>
       </c>
       <c r="G21" s="1">
-        <v>21.660618</v>
+        <v>21.660617999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>1171.710000</v>
+        <v>1171.71</v>
       </c>
       <c r="I21" s="1">
-        <v>-215.259000</v>
+        <v>-215.25899999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>77988.996191</v>
+        <v>77988.996190999998</v>
       </c>
       <c r="L21" s="1">
-        <v>21.663610</v>
+        <v>21.663609999999998</v>
       </c>
       <c r="M21" s="1">
-        <v>1200.300000</v>
+        <v>1200.3</v>
       </c>
       <c r="N21" s="1">
-        <v>-150.698000</v>
+        <v>-150.69800000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>77999.536214</v>
+        <v>77999.536214000007</v>
       </c>
       <c r="Q21" s="1">
-        <v>21.666538</v>
+        <v>21.666537999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1208.570000</v>
+        <v>1208.57</v>
       </c>
       <c r="S21" s="1">
-        <v>-129.188000</v>
+        <v>-129.18799999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>78009.992339</v>
+        <v>78009.992339000004</v>
       </c>
       <c r="V21" s="1">
         <v>21.669442</v>
       </c>
       <c r="W21" s="1">
-        <v>1216.430000</v>
+        <v>1216.43</v>
       </c>
       <c r="X21" s="1">
-        <v>-108.486000</v>
+        <v>-108.486</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>78020.536790</v>
+        <v>78020.536789999998</v>
       </c>
       <c r="AA21" s="1">
-        <v>21.672371</v>
+        <v>21.672370999999998</v>
       </c>
       <c r="AB21" s="1">
-        <v>1224.420000</v>
+        <v>1224.42</v>
       </c>
       <c r="AC21" s="1">
-        <v>-91.588300</v>
+        <v>-91.588300000000004</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>78031.043545</v>
+        <v>78031.043544999993</v>
       </c>
       <c r="AF21" s="1">
-        <v>21.675290</v>
+        <v>21.67529</v>
       </c>
       <c r="AG21" s="1">
-        <v>1229.300000</v>
+        <v>1229.3</v>
       </c>
       <c r="AH21" s="1">
-        <v>-87.255800</v>
+        <v>-87.255799999999994</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>78041.822105</v>
+        <v>78041.822104999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>21.678284</v>
+        <v>21.678284000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>1236.710000</v>
+        <v>1236.71</v>
       </c>
       <c r="AM21" s="1">
-        <v>-90.257500</v>
+        <v>-90.257499999999993</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>78052.720203</v>
+        <v>78052.720203000004</v>
       </c>
       <c r="AP21" s="1">
-        <v>21.681311</v>
+        <v>21.681311000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1244.840000</v>
+        <v>1244.8399999999999</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.119000</v>
+        <v>-102.119</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>78063.453133</v>
+        <v>78063.453133000003</v>
       </c>
       <c r="AU21" s="1">
         <v>21.684293</v>
       </c>
       <c r="AV21" s="1">
-        <v>1254.970000</v>
+        <v>1254.97</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.399000</v>
+        <v>-121.399</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>78073.765951</v>
+        <v>78073.765950999994</v>
       </c>
       <c r="AZ21" s="1">
-        <v>21.687157</v>
+        <v>21.687156999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1263.520000</v>
+        <v>1263.52</v>
       </c>
       <c r="BB21" s="1">
-        <v>-138.829000</v>
+        <v>-138.82900000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>78084.488962</v>
+        <v>78084.488962000003</v>
       </c>
       <c r="BE21" s="1">
-        <v>21.690136</v>
+        <v>21.690135999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1304.070000</v>
+        <v>1304.07</v>
       </c>
       <c r="BG21" s="1">
-        <v>-220.670000</v>
+        <v>-220.67</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>78095.772946</v>
+        <v>78095.772945999997</v>
       </c>
       <c r="BJ21" s="1">
-        <v>21.693270</v>
+        <v>21.693269999999998</v>
       </c>
       <c r="BK21" s="1">
-        <v>1374.370000</v>
+        <v>1374.37</v>
       </c>
       <c r="BL21" s="1">
-        <v>-356.735000</v>
+        <v>-356.73500000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>78107.256323</v>
+        <v>78107.256322999994</v>
       </c>
       <c r="BO21" s="1">
-        <v>21.696460</v>
+        <v>21.696459999999998</v>
       </c>
       <c r="BP21" s="1">
-        <v>1489.980000</v>
+        <v>1489.98</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-577.496000</v>
+        <v>-577.49599999999998</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>78118.324052</v>
+        <v>78118.324051999996</v>
       </c>
       <c r="BT21" s="1">
         <v>21.699534</v>
       </c>
       <c r="BU21" s="1">
-        <v>1622.760000</v>
+        <v>1622.76</v>
       </c>
       <c r="BV21" s="1">
-        <v>-825.887000</v>
+        <v>-825.88699999999994</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>78129.305478</v>
+        <v>78129.305477999995</v>
       </c>
       <c r="BY21" s="1">
-        <v>21.702585</v>
+        <v>21.702584999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1776.590000</v>
+        <v>1776.59</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1094.680000</v>
+        <v>-1094.68</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>78142.220342</v>
+        <v>78142.220342000001</v>
       </c>
       <c r="CD21" s="1">
-        <v>21.706172</v>
+        <v>21.706171999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>2195.620000</v>
+        <v>2195.62</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1742.250000</v>
+        <v>-1742.25</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>77968.032086</v>
+        <v>77968.032086000007</v>
       </c>
       <c r="B22" s="1">
-        <v>21.657787</v>
+        <v>21.657786999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>1150.060000</v>
+        <v>1150.06</v>
       </c>
       <c r="D22" s="1">
-        <v>-254.922000</v>
+        <v>-254.922</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>77978.486957</v>
+        <v>77978.486957000001</v>
       </c>
       <c r="G22" s="1">
         <v>21.660691</v>
       </c>
       <c r="H22" s="1">
-        <v>1172.440000</v>
+        <v>1172.44</v>
       </c>
       <c r="I22" s="1">
-        <v>-214.781000</v>
+        <v>-214.78100000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>77989.339919</v>
+        <v>77989.339919000005</v>
       </c>
       <c r="L22" s="1">
-        <v>21.663706</v>
+        <v>21.663706000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1200.240000</v>
+        <v>1200.24</v>
       </c>
       <c r="N22" s="1">
-        <v>-150.756000</v>
+        <v>-150.756</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>77999.870978</v>
+        <v>77999.870978000006</v>
       </c>
       <c r="Q22" s="1">
-        <v>21.666631</v>
+        <v>21.666630999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>1208.590000</v>
+        <v>1208.5899999999999</v>
       </c>
       <c r="S22" s="1">
-        <v>-129.066000</v>
+        <v>-129.066</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>78010.333091</v>
+        <v>78010.333090999993</v>
       </c>
       <c r="V22" s="1">
-        <v>21.669537</v>
+        <v>21.669536999999998</v>
       </c>
       <c r="W22" s="1">
-        <v>1216.440000</v>
+        <v>1216.44</v>
       </c>
       <c r="X22" s="1">
-        <v>-108.377000</v>
+        <v>-108.377</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>78021.235188</v>
+        <v>78021.235188000006</v>
       </c>
       <c r="AA22" s="1">
-        <v>21.672565</v>
+        <v>21.672564999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>1224.400000</v>
+        <v>1224.4000000000001</v>
       </c>
       <c r="AC22" s="1">
-        <v>-91.597900</v>
+        <v>-91.597899999999996</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>78031.728518</v>
+        <v>78031.728518000004</v>
       </c>
       <c r="AF22" s="1">
-        <v>21.675480</v>
+        <v>21.67548</v>
       </c>
       <c r="AG22" s="1">
-        <v>1229.450000</v>
+        <v>1229.45</v>
       </c>
       <c r="AH22" s="1">
-        <v>-87.106100</v>
+        <v>-87.106099999999998</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>78042.172282</v>
       </c>
       <c r="AK22" s="1">
-        <v>21.678381</v>
+        <v>21.678381000000002</v>
       </c>
       <c r="AL22" s="1">
-        <v>1236.690000</v>
+        <v>1236.69</v>
       </c>
       <c r="AM22" s="1">
-        <v>-90.248500</v>
+        <v>-90.248500000000007</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>78053.079306</v>
       </c>
       <c r="AP22" s="1">
-        <v>21.681411</v>
+        <v>21.681411000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1244.850000</v>
+        <v>1244.8499999999999</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.123000</v>
+        <v>-102.123</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>78063.817692</v>
+        <v>78063.817691999997</v>
       </c>
       <c r="AU22" s="1">
-        <v>21.684394</v>
+        <v>21.684394000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1254.970000</v>
+        <v>1254.97</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.424000</v>
+        <v>-121.42400000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>78074.443488</v>
+        <v>78074.443488000004</v>
       </c>
       <c r="AZ22" s="1">
-        <v>21.687345</v>
+        <v>21.687345000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1263.540000</v>
+        <v>1263.54</v>
       </c>
       <c r="BB22" s="1">
-        <v>-138.876000</v>
+        <v>-138.876</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>78085.234981</v>
+        <v>78085.234981000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>21.690343</v>
+        <v>21.690342999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1304.070000</v>
+        <v>1304.07</v>
       </c>
       <c r="BG22" s="1">
-        <v>-220.673000</v>
+        <v>-220.673</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>78096.220512</v>
       </c>
       <c r="BJ22" s="1">
-        <v>21.693395</v>
+        <v>21.693394999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1374.360000</v>
+        <v>1374.36</v>
       </c>
       <c r="BL22" s="1">
-        <v>-356.705000</v>
+        <v>-356.70499999999998</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>78107.647170</v>
+        <v>78107.647169999997</v>
       </c>
       <c r="BO22" s="1">
         <v>21.696569</v>
       </c>
       <c r="BP22" s="1">
-        <v>1489.920000</v>
+        <v>1489.92</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-577.533000</v>
+        <v>-577.53300000000002</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>78118.749651</v>
+        <v>78118.749651000006</v>
       </c>
       <c r="BT22" s="1">
-        <v>21.699653</v>
+        <v>21.699653000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1622.680000</v>
+        <v>1622.68</v>
       </c>
       <c r="BV22" s="1">
-        <v>-825.833000</v>
+        <v>-825.83299999999997</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>78129.725125</v>
+        <v>78129.725124999997</v>
       </c>
       <c r="BY22" s="1">
-        <v>21.702701</v>
+        <v>21.702701000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1776.410000</v>
+        <v>1776.41</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1094.610000</v>
+        <v>-1094.6099999999999</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>78142.757974</v>
+        <v>78142.757973999993</v>
       </c>
       <c r="CD22" s="1">
         <v>21.706322</v>
       </c>
       <c r="CE22" s="1">
-        <v>2193.660000</v>
+        <v>2193.66</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1743.320000</v>
+        <v>-1743.32</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>77968.372077</v>
+        <v>77968.372077000007</v>
       </c>
       <c r="B23" s="1">
         <v>21.657881</v>
       </c>
       <c r="C23" s="1">
-        <v>1150.070000</v>
+        <v>1150.07</v>
       </c>
       <c r="D23" s="1">
-        <v>-254.705000</v>
+        <v>-254.70500000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>77978.832704</v>
       </c>
       <c r="G23" s="1">
-        <v>21.660787</v>
+        <v>21.660786999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>1171.550000</v>
+        <v>1171.55</v>
       </c>
       <c r="I23" s="1">
-        <v>-215.923000</v>
+        <v>-215.923</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>77989.685632</v>
+        <v>77989.685631999993</v>
       </c>
       <c r="L23" s="1">
         <v>21.663802</v>
       </c>
       <c r="M23" s="1">
-        <v>1200.410000</v>
+        <v>1200.4100000000001</v>
       </c>
       <c r="N23" s="1">
-        <v>-150.672000</v>
+        <v>-150.672</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>78000.228096</v>
+        <v>78000.228096000006</v>
       </c>
       <c r="Q23" s="1">
-        <v>21.666730</v>
+        <v>21.666730000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>1208.690000</v>
+        <v>1208.69</v>
       </c>
       <c r="S23" s="1">
-        <v>-129.185000</v>
+        <v>-129.185</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>78011.019058</v>
+        <v>78011.019058000005</v>
       </c>
       <c r="V23" s="1">
-        <v>21.669728</v>
+        <v>21.669727999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>1216.490000</v>
+        <v>1216.49</v>
       </c>
       <c r="X23" s="1">
-        <v>-108.376000</v>
+        <v>-108.376</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>78021.584875</v>
       </c>
       <c r="AA23" s="1">
-        <v>21.672662</v>
+        <v>21.672661999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>1224.410000</v>
+        <v>1224.4100000000001</v>
       </c>
       <c r="AC23" s="1">
-        <v>-91.508400</v>
+        <v>-91.508399999999995</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>78032.288006</v>
+        <v>78032.288006000002</v>
       </c>
       <c r="AF23" s="1">
-        <v>21.675636</v>
+        <v>21.675636000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1229.500000</v>
+        <v>1229.5</v>
       </c>
       <c r="AH23" s="1">
-        <v>-87.024800</v>
+        <v>-87.024799999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>78042.521464</v>
+        <v>78042.521464000005</v>
       </c>
       <c r="AK23" s="1">
-        <v>21.678478</v>
+        <v>21.678477999999998</v>
       </c>
       <c r="AL23" s="1">
-        <v>1236.690000</v>
+        <v>1236.69</v>
       </c>
       <c r="AM23" s="1">
-        <v>-90.229400</v>
+        <v>-90.229399999999998</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>78053.754858</v>
       </c>
       <c r="AP23" s="1">
-        <v>21.681599</v>
+        <v>21.681598999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1244.850000</v>
+        <v>1244.8499999999999</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.097000</v>
+        <v>-102.09699999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>78064.490763</v>
+        <v>78064.490762999994</v>
       </c>
       <c r="AU23" s="1">
-        <v>21.684581</v>
+        <v>21.684581000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1254.970000</v>
+        <v>1254.97</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.408000</v>
+        <v>-121.408</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>78074.849747</v>
       </c>
       <c r="AZ23" s="1">
-        <v>21.687458</v>
+        <v>21.687457999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1263.520000</v>
+        <v>1263.52</v>
       </c>
       <c r="BB23" s="1">
-        <v>-138.872000</v>
+        <v>-138.87200000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>78085.572224</v>
+        <v>78085.572224000003</v>
       </c>
       <c r="BE23" s="1">
-        <v>21.690437</v>
+        <v>21.690436999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1304.050000</v>
+        <v>1304.05</v>
       </c>
       <c r="BG23" s="1">
-        <v>-220.691000</v>
+        <v>-220.691</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>78096.594322</v>
+        <v>78096.594322000004</v>
       </c>
       <c r="BJ23" s="1">
-        <v>21.693498</v>
+        <v>21.693498000000002</v>
       </c>
       <c r="BK23" s="1">
-        <v>1374.380000</v>
+        <v>1374.38</v>
       </c>
       <c r="BL23" s="1">
-        <v>-356.725000</v>
+        <v>-356.72500000000002</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>78108.068274</v>
+        <v>78108.068274000005</v>
       </c>
       <c r="BO23" s="1">
         <v>21.696686</v>
       </c>
       <c r="BP23" s="1">
-        <v>1489.940000</v>
+        <v>1489.94</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-577.525000</v>
+        <v>-577.52499999999998</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>78119.161300</v>
+        <v>78119.161300000007</v>
       </c>
       <c r="BT23" s="1">
-        <v>21.699767</v>
+        <v>21.699767000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1622.760000</v>
+        <v>1622.76</v>
       </c>
       <c r="BV23" s="1">
-        <v>-825.787000</v>
+        <v>-825.78700000000003</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>78130.168518</v>
+        <v>78130.168518000006</v>
       </c>
       <c r="BY23" s="1">
-        <v>21.702825</v>
+        <v>21.702825000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1776.510000</v>
+        <v>1776.51</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1094.670000</v>
+        <v>-1094.67</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>78143.298127</v>
+        <v>78143.298127000002</v>
       </c>
       <c r="CD23" s="1">
-        <v>21.706472</v>
+        <v>21.706472000000002</v>
       </c>
       <c r="CE23" s="1">
-        <v>2195.800000</v>
+        <v>2195.8000000000002</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1744.280000</v>
+        <v>-1744.28</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>77968.710314</v>
+        <v>77968.710313999996</v>
       </c>
       <c r="B24" s="1">
         <v>21.657975</v>
       </c>
       <c r="C24" s="1">
-        <v>1150.100000</v>
+        <v>1150.0999999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-254.738000</v>
+        <v>-254.738</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>77979.177885</v>
+        <v>77979.177884999997</v>
       </c>
       <c r="G24" s="1">
-        <v>21.660883</v>
+        <v>21.660882999999998</v>
       </c>
       <c r="H24" s="1">
-        <v>1172.160000</v>
+        <v>1172.1600000000001</v>
       </c>
       <c r="I24" s="1">
-        <v>-215.000000</v>
+        <v>-215</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>77990.376557</v>
+        <v>77990.376556999996</v>
       </c>
       <c r="L24" s="1">
-        <v>21.663993</v>
+        <v>21.663993000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>1200.240000</v>
+        <v>1200.24</v>
       </c>
       <c r="N24" s="1">
-        <v>-150.747000</v>
+        <v>-150.74700000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>78000.926499</v>
+        <v>78000.926498999994</v>
       </c>
       <c r="Q24" s="1">
-        <v>21.666924</v>
+        <v>21.666924000000002</v>
       </c>
       <c r="R24" s="1">
-        <v>1208.680000</v>
+        <v>1208.68</v>
       </c>
       <c r="S24" s="1">
-        <v>-129.146000</v>
+        <v>-129.14599999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>78011.363778</v>
+        <v>78011.363777999999</v>
       </c>
       <c r="V24" s="1">
-        <v>21.669823</v>
+        <v>21.669823000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1216.470000</v>
+        <v>1216.47</v>
       </c>
       <c r="X24" s="1">
-        <v>-108.320000</v>
+        <v>-108.32</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>78021.934020</v>
+        <v>78021.934020000001</v>
       </c>
       <c r="AA24" s="1">
-        <v>21.672759</v>
+        <v>21.672758999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>1224.490000</v>
+        <v>1224.49</v>
       </c>
       <c r="AC24" s="1">
-        <v>-91.551100</v>
+        <v>-91.551100000000005</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>78032.641157</v>
+        <v>78032.641157000005</v>
       </c>
       <c r="AF24" s="1">
-        <v>21.675734</v>
+        <v>21.675733999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>1229.360000</v>
+        <v>1229.3599999999999</v>
       </c>
       <c r="AH24" s="1">
-        <v>-87.038200</v>
+        <v>-87.038200000000003</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>78043.180182</v>
+        <v>78043.180181999996</v>
       </c>
       <c r="AK24" s="1">
-        <v>21.678661</v>
+        <v>21.678661000000002</v>
       </c>
       <c r="AL24" s="1">
-        <v>1236.680000</v>
+        <v>1236.68</v>
       </c>
       <c r="AM24" s="1">
-        <v>-90.237900</v>
+        <v>-90.237899999999996</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>78054.188857</v>
+        <v>78054.188857000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>21.681719</v>
+        <v>21.681719000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1244.830000</v>
+        <v>1244.83</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.108000</v>
+        <v>-102.108</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>78064.911866</v>
+        <v>78064.911865999995</v>
       </c>
       <c r="AU24" s="1">
-        <v>21.684698</v>
+        <v>21.684698000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1254.950000</v>
+        <v>1254.95</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.405000</v>
+        <v>-121.405</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>78075.225181</v>
+        <v>78075.225181000002</v>
       </c>
       <c r="AZ24" s="1">
-        <v>21.687563</v>
+        <v>21.687563000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1263.530000</v>
+        <v>1263.53</v>
       </c>
       <c r="BB24" s="1">
-        <v>-138.886000</v>
+        <v>-138.886</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>78085.934303</v>
+        <v>78085.934303000002</v>
       </c>
       <c r="BE24" s="1">
-        <v>21.690537</v>
+        <v>21.690536999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1304.070000</v>
+        <v>1304.07</v>
       </c>
       <c r="BG24" s="1">
-        <v>-220.681000</v>
+        <v>-220.68100000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>78096.967840</v>
+        <v>78096.967839999998</v>
       </c>
       <c r="BJ24" s="1">
-        <v>21.693602</v>
+        <v>21.693601999999998</v>
       </c>
       <c r="BK24" s="1">
-        <v>1374.390000</v>
+        <v>1374.39</v>
       </c>
       <c r="BL24" s="1">
-        <v>-356.733000</v>
+        <v>-356.733</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>78108.500785</v>
+        <v>78108.500784999997</v>
       </c>
       <c r="BO24" s="1">
-        <v>21.696806</v>
+        <v>21.696805999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1489.920000</v>
+        <v>1489.92</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-577.484000</v>
+        <v>-577.48400000000004</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>78119.595799</v>
+        <v>78119.595799000002</v>
       </c>
       <c r="BT24" s="1">
-        <v>21.699888</v>
+        <v>21.699888000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1622.650000</v>
+        <v>1622.65</v>
       </c>
       <c r="BV24" s="1">
-        <v>-825.791000</v>
+        <v>-825.79100000000005</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>78130.589620</v>
+        <v>78130.589619999999</v>
       </c>
       <c r="BY24" s="1">
         <v>21.702942</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1776.470000</v>
+        <v>1776.47</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1094.630000</v>
+        <v>-1094.6300000000001</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>78143.836772</v>
+        <v>78143.836771999995</v>
       </c>
       <c r="CD24" s="1">
-        <v>21.706621</v>
+        <v>21.706620999999998</v>
       </c>
       <c r="CE24" s="1">
-        <v>2193.980000</v>
+        <v>2193.98</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1741.910000</v>
+        <v>-1741.91</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>77969.396777</v>
+        <v>77969.396777000002</v>
       </c>
       <c r="B25" s="1">
-        <v>21.658166</v>
+        <v>21.658166000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>1150.120000</v>
+        <v>1150.1199999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-254.770000</v>
+        <v>-254.77</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>77979.872284</v>
+        <v>77979.872283999997</v>
       </c>
       <c r="G25" s="1">
-        <v>21.661076</v>
+        <v>21.661076000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>1171.290000</v>
+        <v>1171.29</v>
       </c>
       <c r="I25" s="1">
-        <v>-214.912000</v>
+        <v>-214.91200000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>77990.723261</v>
+        <v>77990.723261000006</v>
       </c>
       <c r="L25" s="1">
-        <v>21.664090</v>
+        <v>21.664090000000002</v>
       </c>
       <c r="M25" s="1">
-        <v>1200.280000</v>
+        <v>1200.28</v>
       </c>
       <c r="N25" s="1">
-        <v>-150.873000</v>
+        <v>-150.87299999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>78001.278127</v>
+        <v>78001.278126999998</v>
       </c>
       <c r="Q25" s="1">
-        <v>21.667022</v>
+        <v>21.667021999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>1208.590000</v>
+        <v>1208.5899999999999</v>
       </c>
       <c r="S25" s="1">
-        <v>-129.146000</v>
+        <v>-129.14599999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>78011.709489</v>
+        <v>78011.709489000001</v>
       </c>
       <c r="V25" s="1">
         <v>21.669919</v>
       </c>
       <c r="W25" s="1">
-        <v>1216.450000</v>
+        <v>1216.45</v>
       </c>
       <c r="X25" s="1">
-        <v>-108.380000</v>
+        <v>-108.38</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>78022.590228</v>
+        <v>78022.590228000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>21.672942</v>
+        <v>21.672941999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>1224.440000</v>
+        <v>1224.44</v>
       </c>
       <c r="AC25" s="1">
-        <v>-91.515400</v>
+        <v>-91.5154</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>78033.304308</v>
+        <v>78033.304308000006</v>
       </c>
       <c r="AF25" s="1">
-        <v>21.675918</v>
+        <v>21.675917999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>1229.440000</v>
+        <v>1229.44</v>
       </c>
       <c r="AH25" s="1">
-        <v>-87.024100</v>
+        <v>-87.024100000000004</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>78043.567561</v>
+        <v>78043.567561000003</v>
       </c>
       <c r="AK25" s="1">
-        <v>21.678769</v>
+        <v>21.678768999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>1236.700000</v>
+        <v>1236.7</v>
       </c>
       <c r="AM25" s="1">
-        <v>-90.277900</v>
+        <v>-90.277900000000002</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>78054.547961</v>
+        <v>78054.547961000004</v>
       </c>
       <c r="AP25" s="1">
-        <v>21.681819</v>
+        <v>21.681819000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1244.830000</v>
+        <v>1244.83</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.124000</v>
+        <v>-102.124</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>78065.274938</v>
+        <v>78065.274938000002</v>
       </c>
       <c r="AU25" s="1">
-        <v>21.684799</v>
+        <v>21.684799000000002</v>
       </c>
       <c r="AV25" s="1">
-        <v>1254.980000</v>
+        <v>1254.98</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.390000</v>
+        <v>-121.39</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>78075.607100</v>
+        <v>78075.607099999994</v>
       </c>
       <c r="AZ25" s="1">
         <v>21.687669</v>
       </c>
       <c r="BA25" s="1">
-        <v>1263.500000</v>
+        <v>1263.5</v>
       </c>
       <c r="BB25" s="1">
-        <v>-138.880000</v>
+        <v>-138.88</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>78086.360895</v>
+        <v>78086.360895000005</v>
       </c>
       <c r="BE25" s="1">
-        <v>21.690656</v>
+        <v>21.690656000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1304.060000</v>
+        <v>1304.06</v>
       </c>
       <c r="BG25" s="1">
-        <v>-220.699000</v>
+        <v>-220.69900000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>78097.392416</v>
+        <v>78097.392416000002</v>
       </c>
       <c r="BJ25" s="1">
-        <v>21.693720</v>
+        <v>21.693719999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1374.390000</v>
+        <v>1374.39</v>
       </c>
       <c r="BL25" s="1">
-        <v>-356.713000</v>
+        <v>-356.71300000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>78108.889186</v>
@@ -6587,317 +7003,318 @@
         <v>21.696914</v>
       </c>
       <c r="BP25" s="1">
-        <v>1489.900000</v>
+        <v>1489.9</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-577.549000</v>
+        <v>-577.54899999999998</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>78120.022354</v>
+        <v>78120.022354000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>21.700006</v>
+        <v>21.700005999999998</v>
       </c>
       <c r="BU25" s="1">
-        <v>1622.760000</v>
+        <v>1622.76</v>
       </c>
       <c r="BV25" s="1">
-        <v>-825.650000</v>
+        <v>-825.65</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>78131.014195</v>
+        <v>78131.014194999996</v>
       </c>
       <c r="BY25" s="1">
         <v>21.703059</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1776.500000</v>
+        <v>1776.5</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1094.720000</v>
+        <v>-1094.72</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>78144.380882</v>
+        <v>78144.380881999998</v>
       </c>
       <c r="CD25" s="1">
-        <v>21.706772</v>
+        <v>21.706772000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>2194.570000</v>
+        <v>2194.5700000000002</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1744.680000</v>
+        <v>-1744.68</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>77969.739513</v>
+        <v>77969.739512999993</v>
       </c>
       <c r="B26" s="1">
         <v>21.658261</v>
       </c>
       <c r="C26" s="1">
-        <v>1150.060000</v>
+        <v>1150.06</v>
       </c>
       <c r="D26" s="1">
-        <v>-254.798000</v>
+        <v>-254.798</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>77980.224974</v>
+        <v>77980.224973999997</v>
       </c>
       <c r="G26" s="1">
-        <v>21.661174</v>
+        <v>21.661173999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>1171.800000</v>
+        <v>1171.8</v>
       </c>
       <c r="I26" s="1">
-        <v>-215.539000</v>
+        <v>-215.53899999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>77991.070460</v>
+        <v>77991.070460000003</v>
       </c>
       <c r="L26" s="1">
-        <v>21.664186</v>
+        <v>21.664186000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>1200.040000</v>
+        <v>1200.04</v>
       </c>
       <c r="N26" s="1">
-        <v>-150.791000</v>
+        <v>-150.791</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>78001.950734</v>
+        <v>78001.950733999998</v>
       </c>
       <c r="Q26" s="1">
         <v>21.667209</v>
       </c>
       <c r="R26" s="1">
-        <v>1208.620000</v>
+        <v>1208.6199999999999</v>
       </c>
       <c r="S26" s="1">
-        <v>-129.113000</v>
+        <v>-129.113</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>78012.373136</v>
+        <v>78012.373135999995</v>
       </c>
       <c r="V26" s="1">
-        <v>21.670104</v>
+        <v>21.670103999999998</v>
       </c>
       <c r="W26" s="1">
-        <v>1216.370000</v>
+        <v>1216.3699999999999</v>
       </c>
       <c r="X26" s="1">
-        <v>-108.590000</v>
+        <v>-108.59</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>78022.976998</v>
+        <v>78022.976997999998</v>
       </c>
       <c r="AA26" s="1">
-        <v>21.673049</v>
+        <v>21.673048999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>1224.460000</v>
+        <v>1224.46</v>
       </c>
       <c r="AC26" s="1">
-        <v>-91.453600</v>
+        <v>-91.453599999999994</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>78033.674820</v>
+        <v>78033.67482</v>
       </c>
       <c r="AF26" s="1">
-        <v>21.676021</v>
+        <v>21.676020999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>1229.210000</v>
+        <v>1229.21</v>
       </c>
       <c r="AH26" s="1">
-        <v>-86.946000</v>
+        <v>-86.945999999999998</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>78043.913239</v>
+        <v>78043.913239000001</v>
       </c>
       <c r="AK26" s="1">
-        <v>21.678865</v>
+        <v>21.678864999999998</v>
       </c>
       <c r="AL26" s="1">
-        <v>1236.710000</v>
+        <v>1236.71</v>
       </c>
       <c r="AM26" s="1">
-        <v>-90.274100</v>
+        <v>-90.274100000000004</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>78054.910538</v>
+        <v>78054.910537999996</v>
       </c>
       <c r="AP26" s="1">
-        <v>21.681920</v>
+        <v>21.681920000000002</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1244.830000</v>
+        <v>1244.83</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.129000</v>
+        <v>-102.129</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>78065.641482</v>
+        <v>78065.641482000006</v>
       </c>
       <c r="AU26" s="1">
-        <v>21.684900</v>
+        <v>21.684899999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>1254.940000</v>
+        <v>1254.94</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.394000</v>
+        <v>-121.39400000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>78076.039116</v>
       </c>
       <c r="AZ26" s="1">
-        <v>21.687789</v>
+        <v>21.687788999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1263.520000</v>
+        <v>1263.52</v>
       </c>
       <c r="BB26" s="1">
-        <v>-138.851000</v>
+        <v>-138.851</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>78086.657470</v>
+        <v>78086.657470000006</v>
       </c>
       <c r="BE26" s="1">
         <v>21.690738</v>
       </c>
       <c r="BF26" s="1">
-        <v>1304.080000</v>
+        <v>1304.08</v>
       </c>
       <c r="BG26" s="1">
-        <v>-220.668000</v>
+        <v>-220.66800000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>78097.740609</v>
       </c>
       <c r="BJ26" s="1">
-        <v>21.693817</v>
+        <v>21.693816999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1374.400000</v>
+        <v>1374.4</v>
       </c>
       <c r="BL26" s="1">
-        <v>-356.727000</v>
+        <v>-356.72699999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>78109.286976</v>
+        <v>78109.286976000003</v>
       </c>
       <c r="BO26" s="1">
-        <v>21.697024</v>
+        <v>21.697023999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1489.910000</v>
+        <v>1489.91</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-577.543000</v>
+        <v>-577.54300000000001</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>78120.437009</v>
+        <v>78120.437009000001</v>
       </c>
       <c r="BT26" s="1">
-        <v>21.700121</v>
+        <v>21.700120999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1622.770000</v>
+        <v>1622.77</v>
       </c>
       <c r="BV26" s="1">
-        <v>-825.623000</v>
+        <v>-825.62300000000005</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>78131.461587</v>
+        <v>78131.461586999998</v>
       </c>
       <c r="BY26" s="1">
         <v>21.703184</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1776.510000</v>
+        <v>1776.51</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1094.620000</v>
+        <v>-1094.6199999999999</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>78144.918547</v>
+        <v>78144.918546999994</v>
       </c>
       <c r="CD26" s="1">
-        <v>21.706922</v>
+        <v>21.706921999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>2195.730000</v>
+        <v>2195.73</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1742.350000</v>
+        <v>-1742.35</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>